--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.624250356879912</v>
+        <v>1.624250356879799</v>
       </c>
       <c r="C2">
-        <v>1.691269157277645</v>
+        <v>1.691269157276793</v>
       </c>
       <c r="D2">
-        <v>0.2052415675025117</v>
+        <v>0.2052415675033075</v>
       </c>
       <c r="E2">
-        <v>0.1884988170310535</v>
+        <v>0.1884988170311104</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.566258073694286</v>
+        <v>9.566258073694144</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.732495129257579</v>
+        <v>0.7324951292575363</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.002634370155604</v>
+        <v>1.002634370155661</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.368055406012644</v>
+        <v>1.368055406012559</v>
       </c>
       <c r="C3">
-        <v>1.447481828332627</v>
+        <v>1.447481828331547</v>
       </c>
       <c r="D3">
-        <v>0.1755751658811135</v>
+        <v>0.1755751658811278</v>
       </c>
       <c r="E3">
-        <v>0.1621699900682643</v>
+        <v>0.1621699900681932</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.333577913828691</v>
+        <v>8.333577913828719</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6218763729515615</v>
+        <v>0.6218763729515686</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8551034401841946</v>
+        <v>0.855103440184152</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.218392539640831</v>
+        <v>1.218392539640746</v>
       </c>
       <c r="C4">
         <v>1.302567054780354</v>
       </c>
       <c r="D4">
-        <v>0.1579431865848591</v>
+        <v>0.1579431865843333</v>
       </c>
       <c r="E4">
-        <v>0.1464917757036517</v>
+        <v>0.1464917757035806</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5567180826046396</v>
+        <v>0.5567180826046538</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7678660170935743</v>
+        <v>0.767866017093624</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.159012809414605</v>
+        <v>1.15901280941506</v>
       </c>
       <c r="C5">
-        <v>1.244510376345545</v>
+        <v>1.244510376346852</v>
       </c>
       <c r="D5">
-        <v>0.150880290841954</v>
+        <v>0.1508802908423093</v>
       </c>
       <c r="E5">
-        <v>0.1402050225415366</v>
+        <v>0.1402050225415437</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.301153671342576</v>
+        <v>7.301153671342746</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5307459355211961</v>
+        <v>0.5307459355211677</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7330194685266989</v>
+        <v>0.7330194685267131</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149241773685276</v>
+        <v>1.149241773685077</v>
       </c>
       <c r="C6">
-        <v>1.234924962571938</v>
+        <v>1.234924962572507</v>
       </c>
       <c r="D6">
-        <v>0.1497142392410211</v>
+        <v>0.1497142392407511</v>
       </c>
       <c r="E6">
-        <v>0.1391667439792954</v>
+        <v>0.1391667439793416</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.252244976692168</v>
+        <v>7.252244976692197</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5264653114033138</v>
+        <v>0.5264653114032996</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.21758558786334</v>
+        <v>1.217585587863567</v>
       </c>
       <c r="C7">
-        <v>1.30178029094418</v>
+        <v>1.301780290943725</v>
       </c>
       <c r="D7">
-        <v>0.1578474685407372</v>
+        <v>0.1578474685407798</v>
       </c>
       <c r="E7">
-        <v>0.1464066012761265</v>
+        <v>0.1464066012760625</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7673933844750849</v>
+        <v>0.7673933844750493</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.534124415633897</v>
+        <v>1.534124415633499</v>
       </c>
       <c r="C8">
-        <v>1.606089184803125</v>
+        <v>1.606089184803068</v>
       </c>
       <c r="D8">
-        <v>0.1948756720603484</v>
+        <v>0.1948756720602205</v>
       </c>
       <c r="E8">
-        <v>0.1793061487990641</v>
+        <v>0.1793061487990215</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.136406291481535</v>
+        <v>9.13640629148145</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6937061237851978</v>
+        <v>0.6937061237852333</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.950981006331034</v>
+        <v>0.9509810063310198</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.232728708777444</v>
+        <v>2.232728708777415</v>
       </c>
       <c r="C9">
-        <v>2.25178802847114</v>
+        <v>2.251788028470173</v>
       </c>
       <c r="D9">
-        <v>0.2734487018407634</v>
+        <v>0.2734487018410476</v>
       </c>
       <c r="E9">
-        <v>0.2488039583845136</v>
+        <v>0.2488039583845563</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.37441992896328</v>
+        <v>12.37441992896322</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9912269428920411</v>
+        <v>0.9912269428920268</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.345139247916194</v>
+        <v>1.345139247916237</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.824245487218661</v>
+        <v>2.824245487219457</v>
       </c>
       <c r="C10">
-        <v>2.775635448813034</v>
+        <v>2.77563544881292</v>
       </c>
       <c r="D10">
-        <v>0.3371596568139665</v>
+        <v>0.3371596568137534</v>
       </c>
       <c r="E10">
-        <v>0.3048542796622442</v>
+        <v>0.3048542796622158</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.96978382624138</v>
+        <v>14.96978382624098</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.238182856777343</v>
+        <v>1.238182856777271</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.668994812662433</v>
+        <v>1.66899481266249</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.120013141953336</v>
+        <v>3.120013141953166</v>
       </c>
       <c r="C11">
-        <v>3.030774842831534</v>
+        <v>3.030774842832329</v>
       </c>
       <c r="D11">
-        <v>0.3681690940361477</v>
+        <v>0.3681690940361335</v>
       </c>
       <c r="E11">
-        <v>0.3320380586481946</v>
+        <v>0.3320380586482514</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.22428141106354</v>
+        <v>16.22428141106349</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.360189460580997</v>
+        <v>1.360189460581111</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.827959067374337</v>
+        <v>1.827959067374294</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>3.236979203447902</v>
       </c>
       <c r="C12">
-        <v>3.130514033647785</v>
+        <v>3.130514033647501</v>
       </c>
       <c r="D12">
-        <v>0.3802866061982968</v>
+        <v>0.3802866061993626</v>
       </c>
       <c r="E12">
-        <v>0.3426432911404262</v>
+        <v>0.3426432911404689</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.71300960899271</v>
+        <v>16.71300960899282</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.40818701702689</v>
+        <v>1.408187017026876</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.890314312332137</v>
+        <v>1.890314312332109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.211545755609393</v>
+        <v>3.211545755608768</v>
       </c>
       <c r="C13">
-        <v>3.108880947309672</v>
+        <v>3.108880947309217</v>
       </c>
       <c r="D13">
-        <v>0.3776586019572648</v>
+        <v>0.3776586019573358</v>
       </c>
       <c r="E13">
-        <v>0.3403440940976239</v>
+        <v>0.3403440940976381</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.60708628140537</v>
+        <v>16.60708628140526</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.397762122075463</v>
+        <v>1.397762122075491</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.129528752007673</v>
+        <v>3.12952875200773</v>
       </c>
       <c r="C14">
-        <v>3.038913048338486</v>
+        <v>3.038913048337747</v>
       </c>
       <c r="D14">
-        <v>0.3691579260610069</v>
+        <v>0.3691579260606659</v>
       </c>
       <c r="E14">
-        <v>0.3329038489626228</v>
+        <v>0.3329038489625376</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.26419447428299</v>
+        <v>16.26419447428287</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.364099460833017</v>
+        <v>1.364099460833046</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.833042482912873</v>
+        <v>1.83304248291283</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.079977127979532</v>
+        <v>3.079977127979987</v>
       </c>
       <c r="C15">
-        <v>2.99648695566907</v>
+        <v>2.996486955668388</v>
       </c>
       <c r="D15">
-        <v>0.3640027475899785</v>
+        <v>0.3640027475898933</v>
       </c>
       <c r="E15">
-        <v>0.3283894233693161</v>
+        <v>0.3283894233692379</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.05605069360905</v>
+        <v>16.05605069360917</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.343728265175088</v>
+        <v>1.343728265175145</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.806550338179363</v>
+        <v>1.806550338179335</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>2.805542105246559</v>
       </c>
       <c r="C16">
-        <v>2.75935570056555</v>
+        <v>2.759355700565266</v>
       </c>
       <c r="D16">
-        <v>0.3351804926013955</v>
+        <v>0.3351804926020634</v>
       </c>
       <c r="E16">
-        <v>0.3031171260478871</v>
+        <v>0.3031171260478729</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.88952734265982</v>
+        <v>14.8895273426601</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.230435937156514</v>
+        <v>1.230435937156543</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.65887859627405</v>
+        <v>1.658878596274036</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.644720561440749</v>
+        <v>2.644720561440693</v>
       </c>
       <c r="C17">
-        <v>2.618634050037883</v>
+        <v>2.618634050037713</v>
       </c>
       <c r="D17">
-        <v>0.318070260212167</v>
+        <v>0.3180702602128065</v>
       </c>
       <c r="E17">
-        <v>0.2880883303105009</v>
+        <v>0.2880883303105506</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.1947338129676</v>
+        <v>14.19473381296771</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.163663144857424</v>
+        <v>1.163663144857495</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.571570444774139</v>
+        <v>1.571570444774153</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.554648044175337</v>
+        <v>2.554648044175678</v>
       </c>
       <c r="C18">
-        <v>2.539227683546812</v>
+        <v>2.539227683547495</v>
       </c>
       <c r="D18">
-        <v>0.3084135394080789</v>
+        <v>0.3084135394081216</v>
       </c>
       <c r="E18">
-        <v>0.2795978028267996</v>
+        <v>0.2795978028267214</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.80183344817198</v>
+        <v>13.80183344817189</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.52241286952696</v>
+        <v>1.522412869526889</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.524538937045207</v>
+        <v>2.524538937045435</v>
       </c>
       <c r="C19">
-        <v>2.51258716939941</v>
+        <v>2.512587169399978</v>
       </c>
       <c r="D19">
-        <v>0.3051734860015074</v>
+        <v>0.3051734860016779</v>
       </c>
       <c r="E19">
-        <v>0.2767476549436481</v>
+        <v>0.2767476549436836</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.66987983634959</v>
+        <v>13.66987983634991</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.113571568009533</v>
+        <v>1.11357156800949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.505938433996505</v>
+        <v>1.505938433996477</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.661581921501238</v>
+        <v>2.661581921500954</v>
       </c>
       <c r="C20">
-        <v>2.633451012967328</v>
+        <v>2.63345101296585</v>
       </c>
       <c r="D20">
-        <v>0.3198720367839911</v>
+        <v>0.3198720367840053</v>
       </c>
       <c r="E20">
-        <v>0.2896718339421298</v>
+        <v>0.289671833942073</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.2679801956254</v>
+        <v>14.26798019562543</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.170677628002693</v>
+        <v>1.170677628002622</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.580751803393028</v>
+        <v>1.580751803393085</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.15347359565294</v>
+        <v>3.153473595652883</v>
       </c>
       <c r="C21">
-        <v>3.059372867091554</v>
+        <v>3.05937286709144</v>
       </c>
       <c r="D21">
-        <v>0.3716438133927795</v>
+        <v>0.3716438133923532</v>
       </c>
       <c r="E21">
-        <v>0.3350801270917074</v>
+        <v>0.3350801270917358</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.36450998076208</v>
+        <v>16.36450998076219</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.373934370178077</v>
+        <v>1.373934370178006</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.845825921277935</v>
+        <v>1.845825921277921</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.504709752047631</v>
+        <v>3.50470975204729</v>
       </c>
       <c r="C22">
-        <v>3.356445356115614</v>
+        <v>3.356445356114818</v>
       </c>
       <c r="D22">
-        <v>0.4077243293462374</v>
+        <v>0.4077243293461947</v>
       </c>
       <c r="E22">
-        <v>0.3666205861910043</v>
+        <v>0.3666205861910825</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.81659433843652</v>
+        <v>17.81659433843663</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.517537344537615</v>
+        <v>1.517537344537644</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.031998983983712</v>
+        <v>2.031998983983698</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.314050909458558</v>
+        <v>3.314050909458274</v>
       </c>
       <c r="C23">
-        <v>3.195886712041499</v>
+        <v>3.195886712041101</v>
       </c>
       <c r="D23">
-        <v>0.3882272852600579</v>
+        <v>0.3882272852593758</v>
       </c>
       <c r="E23">
-        <v>0.3495876642594951</v>
+        <v>0.3495876642595661</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.03282779479616</v>
+        <v>17.03282779479605</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.43973820329083</v>
+        <v>1.439738203290915</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.931248420611496</v>
+        <v>1.93124842061151</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.653951548949237</v>
+        <v>2.653951548949522</v>
       </c>
       <c r="C24">
-        <v>2.626747652985273</v>
+        <v>2.626747652984477</v>
       </c>
       <c r="D24">
-        <v>0.3190568983071103</v>
+        <v>0.3190568983069682</v>
       </c>
       <c r="E24">
-        <v>0.2889554704799124</v>
+        <v>0.2889554704798556</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.23484533529242</v>
+        <v>14.23484533529202</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.16750372344886</v>
+        <v>1.167503723448888</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.576597715428534</v>
+        <v>1.57659771542852</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.032655317147231</v>
+        <v>2.032655317147373</v>
       </c>
       <c r="C25">
-        <v>2.070109467378018</v>
+        <v>2.07010946737779</v>
       </c>
       <c r="D25">
-        <v>0.2513433090970807</v>
+        <v>0.2513433090965975</v>
       </c>
       <c r="E25">
-        <v>0.2292937396506218</v>
+        <v>0.2292937396507</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.46791823124832</v>
+        <v>11.46791823124843</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9067219607615868</v>
+        <v>0.9067219607616295</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.23364883087622</v>
+        <v>1.233648830876319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.624250356879799</v>
+        <v>1.624250356879912</v>
       </c>
       <c r="C2">
-        <v>1.691269157276793</v>
+        <v>1.691269157277645</v>
       </c>
       <c r="D2">
-        <v>0.2052415675033075</v>
+        <v>0.2052415675025117</v>
       </c>
       <c r="E2">
-        <v>0.1884988170311104</v>
+        <v>0.1884988170310535</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.566258073694144</v>
+        <v>9.566258073694286</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7324951292575363</v>
+        <v>0.732495129257579</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.002634370155661</v>
+        <v>1.002634370155604</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.368055406012559</v>
+        <v>1.368055406012644</v>
       </c>
       <c r="C3">
-        <v>1.447481828331547</v>
+        <v>1.447481828332627</v>
       </c>
       <c r="D3">
-        <v>0.1755751658811278</v>
+        <v>0.1755751658811135</v>
       </c>
       <c r="E3">
-        <v>0.1621699900681932</v>
+        <v>0.1621699900682643</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.333577913828719</v>
+        <v>8.333577913828691</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6218763729515686</v>
+        <v>0.6218763729515615</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.855103440184152</v>
+        <v>0.8551034401841946</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.218392539640746</v>
+        <v>1.218392539640831</v>
       </c>
       <c r="C4">
         <v>1.302567054780354</v>
       </c>
       <c r="D4">
-        <v>0.1579431865843333</v>
+        <v>0.1579431865848591</v>
       </c>
       <c r="E4">
-        <v>0.1464917757035806</v>
+        <v>0.1464917757036517</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5567180826046538</v>
+        <v>0.5567180826046396</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.767866017093624</v>
+        <v>0.7678660170935743</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.15901280941506</v>
+        <v>1.159012809414605</v>
       </c>
       <c r="C5">
-        <v>1.244510376346852</v>
+        <v>1.244510376345545</v>
       </c>
       <c r="D5">
-        <v>0.1508802908423093</v>
+        <v>0.150880290841954</v>
       </c>
       <c r="E5">
-        <v>0.1402050225415437</v>
+        <v>0.1402050225415366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.301153671342746</v>
+        <v>7.301153671342576</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5307459355211677</v>
+        <v>0.5307459355211961</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7330194685267131</v>
+        <v>0.7330194685266989</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149241773685077</v>
+        <v>1.149241773685276</v>
       </c>
       <c r="C6">
-        <v>1.234924962572507</v>
+        <v>1.234924962571938</v>
       </c>
       <c r="D6">
-        <v>0.1497142392407511</v>
+        <v>0.1497142392410211</v>
       </c>
       <c r="E6">
-        <v>0.1391667439793416</v>
+        <v>0.1391667439792954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.252244976692197</v>
+        <v>7.252244976692168</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5264653114032996</v>
+        <v>0.5264653114033138</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.217585587863567</v>
+        <v>1.21758558786334</v>
       </c>
       <c r="C7">
-        <v>1.301780290943725</v>
+        <v>1.30178029094418</v>
       </c>
       <c r="D7">
-        <v>0.1578474685407798</v>
+        <v>0.1578474685407372</v>
       </c>
       <c r="E7">
-        <v>0.1464066012760625</v>
+        <v>0.1464066012761265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7673933844750493</v>
+        <v>0.7673933844750849</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.534124415633499</v>
+        <v>1.534124415633897</v>
       </c>
       <c r="C8">
-        <v>1.606089184803068</v>
+        <v>1.606089184803125</v>
       </c>
       <c r="D8">
-        <v>0.1948756720602205</v>
+        <v>0.1948756720603484</v>
       </c>
       <c r="E8">
-        <v>0.1793061487990215</v>
+        <v>0.1793061487990641</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.13640629148145</v>
+        <v>9.136406291481535</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6937061237852333</v>
+        <v>0.6937061237851978</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9509810063310198</v>
+        <v>0.950981006331034</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.232728708777415</v>
+        <v>2.232728708777444</v>
       </c>
       <c r="C9">
-        <v>2.251788028470173</v>
+        <v>2.25178802847114</v>
       </c>
       <c r="D9">
-        <v>0.2734487018410476</v>
+        <v>0.2734487018407634</v>
       </c>
       <c r="E9">
-        <v>0.2488039583845563</v>
+        <v>0.2488039583845136</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.37441992896322</v>
+        <v>12.37441992896328</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9912269428920268</v>
+        <v>0.9912269428920411</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.345139247916237</v>
+        <v>1.345139247916194</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.824245487219457</v>
+        <v>2.824245487218661</v>
       </c>
       <c r="C10">
-        <v>2.77563544881292</v>
+        <v>2.775635448813034</v>
       </c>
       <c r="D10">
-        <v>0.3371596568137534</v>
+        <v>0.3371596568139665</v>
       </c>
       <c r="E10">
-        <v>0.3048542796622158</v>
+        <v>0.3048542796622442</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.96978382624098</v>
+        <v>14.96978382624138</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.238182856777271</v>
+        <v>1.238182856777343</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.66899481266249</v>
+        <v>1.668994812662433</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.120013141953166</v>
+        <v>3.120013141953336</v>
       </c>
       <c r="C11">
-        <v>3.030774842832329</v>
+        <v>3.030774842831534</v>
       </c>
       <c r="D11">
-        <v>0.3681690940361335</v>
+        <v>0.3681690940361477</v>
       </c>
       <c r="E11">
-        <v>0.3320380586482514</v>
+        <v>0.3320380586481946</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.22428141106349</v>
+        <v>16.22428141106354</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.360189460581111</v>
+        <v>1.360189460580997</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.827959067374294</v>
+        <v>1.827959067374337</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>3.236979203447902</v>
       </c>
       <c r="C12">
-        <v>3.130514033647501</v>
+        <v>3.130514033647785</v>
       </c>
       <c r="D12">
-        <v>0.3802866061993626</v>
+        <v>0.3802866061982968</v>
       </c>
       <c r="E12">
-        <v>0.3426432911404689</v>
+        <v>0.3426432911404262</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.71300960899282</v>
+        <v>16.71300960899271</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.408187017026876</v>
+        <v>1.40818701702689</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.890314312332109</v>
+        <v>1.890314312332137</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.211545755608768</v>
+        <v>3.211545755609393</v>
       </c>
       <c r="C13">
-        <v>3.108880947309217</v>
+        <v>3.108880947309672</v>
       </c>
       <c r="D13">
-        <v>0.3776586019573358</v>
+        <v>0.3776586019572648</v>
       </c>
       <c r="E13">
-        <v>0.3403440940976381</v>
+        <v>0.3403440940976239</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.60708628140526</v>
+        <v>16.60708628140537</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.397762122075491</v>
+        <v>1.397762122075463</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.12952875200773</v>
+        <v>3.129528752007673</v>
       </c>
       <c r="C14">
-        <v>3.038913048337747</v>
+        <v>3.038913048338486</v>
       </c>
       <c r="D14">
-        <v>0.3691579260606659</v>
+        <v>0.3691579260610069</v>
       </c>
       <c r="E14">
-        <v>0.3329038489625376</v>
+        <v>0.3329038489626228</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.26419447428287</v>
+        <v>16.26419447428299</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.364099460833046</v>
+        <v>1.364099460833017</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.83304248291283</v>
+        <v>1.833042482912873</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.079977127979987</v>
+        <v>3.079977127979532</v>
       </c>
       <c r="C15">
-        <v>2.996486955668388</v>
+        <v>2.99648695566907</v>
       </c>
       <c r="D15">
-        <v>0.3640027475898933</v>
+        <v>0.3640027475899785</v>
       </c>
       <c r="E15">
-        <v>0.3283894233692379</v>
+        <v>0.3283894233693161</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.05605069360917</v>
+        <v>16.05605069360905</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.343728265175145</v>
+        <v>1.343728265175088</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.806550338179335</v>
+        <v>1.806550338179363</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>2.805542105246559</v>
       </c>
       <c r="C16">
-        <v>2.759355700565266</v>
+        <v>2.75935570056555</v>
       </c>
       <c r="D16">
-        <v>0.3351804926020634</v>
+        <v>0.3351804926013955</v>
       </c>
       <c r="E16">
-        <v>0.3031171260478729</v>
+        <v>0.3031171260478871</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.8895273426601</v>
+        <v>14.88952734265982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.230435937156543</v>
+        <v>1.230435937156514</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.658878596274036</v>
+        <v>1.65887859627405</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.644720561440693</v>
+        <v>2.644720561440749</v>
       </c>
       <c r="C17">
-        <v>2.618634050037713</v>
+        <v>2.618634050037883</v>
       </c>
       <c r="D17">
-        <v>0.3180702602128065</v>
+        <v>0.318070260212167</v>
       </c>
       <c r="E17">
-        <v>0.2880883303105506</v>
+        <v>0.2880883303105009</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.19473381296771</v>
+        <v>14.1947338129676</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.163663144857495</v>
+        <v>1.163663144857424</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.571570444774153</v>
+        <v>1.571570444774139</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.554648044175678</v>
+        <v>2.554648044175337</v>
       </c>
       <c r="C18">
-        <v>2.539227683547495</v>
+        <v>2.539227683546812</v>
       </c>
       <c r="D18">
-        <v>0.3084135394081216</v>
+        <v>0.3084135394080789</v>
       </c>
       <c r="E18">
-        <v>0.2795978028267214</v>
+        <v>0.2795978028267996</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.80183344817189</v>
+        <v>13.80183344817198</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.522412869526889</v>
+        <v>1.52241286952696</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.524538937045435</v>
+        <v>2.524538937045207</v>
       </c>
       <c r="C19">
-        <v>2.512587169399978</v>
+        <v>2.51258716939941</v>
       </c>
       <c r="D19">
-        <v>0.3051734860016779</v>
+        <v>0.3051734860015074</v>
       </c>
       <c r="E19">
-        <v>0.2767476549436836</v>
+        <v>0.2767476549436481</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.66987983634991</v>
+        <v>13.66987983634959</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.11357156800949</v>
+        <v>1.113571568009533</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.505938433996477</v>
+        <v>1.505938433996505</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.661581921500954</v>
+        <v>2.661581921501238</v>
       </c>
       <c r="C20">
-        <v>2.63345101296585</v>
+        <v>2.633451012967328</v>
       </c>
       <c r="D20">
-        <v>0.3198720367840053</v>
+        <v>0.3198720367839911</v>
       </c>
       <c r="E20">
-        <v>0.289671833942073</v>
+        <v>0.2896718339421298</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.26798019562543</v>
+        <v>14.2679801956254</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.170677628002622</v>
+        <v>1.170677628002693</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.580751803393085</v>
+        <v>1.580751803393028</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.153473595652883</v>
+        <v>3.15347359565294</v>
       </c>
       <c r="C21">
-        <v>3.05937286709144</v>
+        <v>3.059372867091554</v>
       </c>
       <c r="D21">
-        <v>0.3716438133923532</v>
+        <v>0.3716438133927795</v>
       </c>
       <c r="E21">
-        <v>0.3350801270917358</v>
+        <v>0.3350801270917074</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.36450998076219</v>
+        <v>16.36450998076208</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.373934370178006</v>
+        <v>1.373934370178077</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.845825921277921</v>
+        <v>1.845825921277935</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.50470975204729</v>
+        <v>3.504709752047631</v>
       </c>
       <c r="C22">
-        <v>3.356445356114818</v>
+        <v>3.356445356115614</v>
       </c>
       <c r="D22">
-        <v>0.4077243293461947</v>
+        <v>0.4077243293462374</v>
       </c>
       <c r="E22">
-        <v>0.3666205861910825</v>
+        <v>0.3666205861910043</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.81659433843663</v>
+        <v>17.81659433843652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.517537344537644</v>
+        <v>1.517537344537615</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.031998983983698</v>
+        <v>2.031998983983712</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.314050909458274</v>
+        <v>3.314050909458558</v>
       </c>
       <c r="C23">
-        <v>3.195886712041101</v>
+        <v>3.195886712041499</v>
       </c>
       <c r="D23">
-        <v>0.3882272852593758</v>
+        <v>0.3882272852600579</v>
       </c>
       <c r="E23">
-        <v>0.3495876642595661</v>
+        <v>0.3495876642594951</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.03282779479605</v>
+        <v>17.03282779479616</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.439738203290915</v>
+        <v>1.43973820329083</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.93124842061151</v>
+        <v>1.931248420611496</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.653951548949522</v>
+        <v>2.653951548949237</v>
       </c>
       <c r="C24">
-        <v>2.626747652984477</v>
+        <v>2.626747652985273</v>
       </c>
       <c r="D24">
-        <v>0.3190568983069682</v>
+        <v>0.3190568983071103</v>
       </c>
       <c r="E24">
-        <v>0.2889554704798556</v>
+        <v>0.2889554704799124</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.23484533529202</v>
+        <v>14.23484533529242</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.167503723448888</v>
+        <v>1.16750372344886</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.57659771542852</v>
+        <v>1.576597715428534</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.032655317147373</v>
+        <v>2.032655317147231</v>
       </c>
       <c r="C25">
-        <v>2.07010946737779</v>
+        <v>2.070109467378018</v>
       </c>
       <c r="D25">
-        <v>0.2513433090965975</v>
+        <v>0.2513433090970807</v>
       </c>
       <c r="E25">
-        <v>0.2292937396507</v>
+        <v>0.2292937396506218</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.46791823124843</v>
+        <v>11.46791823124832</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9067219607616295</v>
+        <v>0.9067219607615868</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.233648830876319</v>
+        <v>1.23364883087622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.624250356879912</v>
+        <v>1.598464761571165</v>
       </c>
       <c r="C2">
-        <v>1.691269157277645</v>
+        <v>1.679439730711238</v>
       </c>
       <c r="D2">
-        <v>0.2052415675025117</v>
+        <v>0.2040143143457556</v>
       </c>
       <c r="E2">
-        <v>0.1884988170310535</v>
+        <v>0.187378528301231</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007797965300717279</v>
       </c>
       <c r="H2">
-        <v>9.566258073694286</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.573623975060457</v>
       </c>
       <c r="J2">
-        <v>0.732495129257579</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7236395988308786</v>
       </c>
       <c r="L2">
-        <v>1.002634370155604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9954282954055245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.368055406012644</v>
+        <v>1.347228126582849</v>
       </c>
       <c r="C3">
-        <v>1.447481828332627</v>
+        <v>1.438860614725513</v>
       </c>
       <c r="D3">
-        <v>0.1755751658811135</v>
+        <v>0.1745577722525269</v>
       </c>
       <c r="E3">
-        <v>0.1621699900682643</v>
+        <v>0.1610919741193229</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007940100364854661</v>
       </c>
       <c r="H3">
-        <v>8.333577913828691</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.348231912988638</v>
       </c>
       <c r="J3">
-        <v>0.6218763729515615</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6148975947332005</v>
       </c>
       <c r="L3">
-        <v>0.8551034401841946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.849470572789393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.218392539640831</v>
+        <v>1.200545353364618</v>
       </c>
       <c r="C4">
-        <v>1.302567054780354</v>
+        <v>1.295865932815275</v>
       </c>
       <c r="D4">
-        <v>0.1579431865848591</v>
+        <v>0.1570467970291247</v>
       </c>
       <c r="E4">
-        <v>0.1464917757036517</v>
+        <v>0.1454326049879526</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008028234816520894</v>
       </c>
       <c r="H4">
-        <v>7.59707882388517</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.615917894547465</v>
       </c>
       <c r="J4">
-        <v>0.5567180826046396</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.550867113216853</v>
       </c>
       <c r="L4">
-        <v>0.7678660170935743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7631630208985172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.159012809414605</v>
+        <v>1.142370242208159</v>
       </c>
       <c r="C5">
-        <v>1.244510376345545</v>
+        <v>1.238583282431307</v>
       </c>
       <c r="D5">
-        <v>0.150880290841954</v>
+        <v>0.1500316451671893</v>
       </c>
       <c r="E5">
-        <v>0.1402050225415366</v>
+        <v>0.1391520046127006</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008064438189546605</v>
       </c>
       <c r="H5">
-        <v>7.301153671342576</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.321640089714151</v>
       </c>
       <c r="J5">
-        <v>0.5307459355211961</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5253507378174689</v>
       </c>
       <c r="L5">
-        <v>0.7330194685266989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7286888096819411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149241773685276</v>
+        <v>1.132798804566022</v>
       </c>
       <c r="C6">
-        <v>1.234924962571938</v>
+        <v>1.229125991651415</v>
       </c>
       <c r="D6">
-        <v>0.1497142392410211</v>
+        <v>0.1488734372233438</v>
       </c>
       <c r="E6">
-        <v>0.1391667439792954</v>
+        <v>0.1381146621109899</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008070469005121544</v>
       </c>
       <c r="H6">
-        <v>7.252244976692168</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.273001805105963</v>
       </c>
       <c r="J6">
-        <v>0.5264653114033138</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5211456237570573</v>
       </c>
       <c r="L6">
-        <v>0.7272720435692719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7230028762834735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.21758558786334</v>
+        <v>1.199754679613903</v>
       </c>
       <c r="C7">
-        <v>1.30178029094418</v>
+        <v>1.295089637061267</v>
       </c>
       <c r="D7">
-        <v>0.1578474685407372</v>
+        <v>0.1569517287372122</v>
       </c>
       <c r="E7">
-        <v>0.1464066012761265</v>
+        <v>0.1453475194157221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008028721816300945</v>
       </c>
       <c r="H7">
-        <v>7.593071973041646</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.611933478215008</v>
       </c>
       <c r="J7">
-        <v>0.556365601892729</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5505207918906905</v>
       </c>
       <c r="L7">
-        <v>0.7673933844750849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.762695433520598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.534124415633897</v>
+        <v>1.510066069719159</v>
       </c>
       <c r="C8">
-        <v>1.606089184803125</v>
+        <v>1.595379006171299</v>
       </c>
       <c r="D8">
-        <v>0.1948756720603484</v>
+        <v>0.1937226810343873</v>
       </c>
       <c r="E8">
-        <v>0.1793061487990641</v>
+        <v>0.1782020877017487</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007846840348114997</v>
       </c>
       <c r="H8">
-        <v>9.136406291481535</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.146355174939913</v>
       </c>
       <c r="J8">
-        <v>0.6937061237851978</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6855043557146772</v>
       </c>
       <c r="L8">
-        <v>0.950981006331034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9443265246704939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.232728708777444</v>
+        <v>2.195570469962007</v>
       </c>
       <c r="C9">
-        <v>2.25178802847114</v>
+        <v>2.232560641152475</v>
       </c>
       <c r="D9">
-        <v>0.2734487018407634</v>
+        <v>0.2717047434382636</v>
       </c>
       <c r="E9">
-        <v>0.2488039583845136</v>
+        <v>0.2475394741620391</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007493161227243659</v>
       </c>
       <c r="H9">
-        <v>12.37441992896328</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.36371734345849</v>
       </c>
       <c r="J9">
-        <v>0.9912269428920411</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9780702462443145</v>
       </c>
       <c r="L9">
-        <v>1.345139247916194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.3342144304481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.824245487218661</v>
+        <v>2.77618201958478</v>
       </c>
       <c r="C10">
-        <v>2.775635448813034</v>
+        <v>2.749296958843615</v>
       </c>
       <c r="D10">
-        <v>0.3371596568139665</v>
+        <v>0.3348811524158606</v>
       </c>
       <c r="E10">
-        <v>0.3048542796622442</v>
+        <v>0.3033961071586191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007228357182713631</v>
       </c>
       <c r="H10">
-        <v>14.96978382624138</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.94026191888923</v>
       </c>
       <c r="J10">
-        <v>1.238182856777343</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.220912789780741</v>
       </c>
       <c r="L10">
-        <v>1.668994812662433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.654378379441624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.120013141953336</v>
+        <v>3.066446668629851</v>
       </c>
       <c r="C11">
-        <v>3.030774842831534</v>
+        <v>3.000851203363993</v>
       </c>
       <c r="D11">
-        <v>0.3681690940361477</v>
+        <v>0.3656085412503387</v>
       </c>
       <c r="E11">
-        <v>0.3320380586481946</v>
+        <v>0.3304635996736636</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007104726393473599</v>
       </c>
       <c r="H11">
-        <v>16.22428141106354</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.18479581035359</v>
       </c>
       <c r="J11">
-        <v>1.360189460580997</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.340849494695519</v>
       </c>
       <c r="L11">
-        <v>1.827959067374337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.811438864979976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.236979203447902</v>
+        <v>3.181216494691512</v>
       </c>
       <c r="C12">
-        <v>3.130514033647785</v>
+        <v>3.099161078880627</v>
       </c>
       <c r="D12">
-        <v>0.3802866061982968</v>
+        <v>0.3776114219510873</v>
       </c>
       <c r="E12">
-        <v>0.3426432911404262</v>
+        <v>0.3410191813829542</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007057215185507743</v>
       </c>
       <c r="H12">
-        <v>16.71300960899271</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.66946971030234</v>
       </c>
       <c r="J12">
-        <v>1.40818701702689</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.388022185885561</v>
       </c>
       <c r="L12">
-        <v>1.890314312332137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.873027294819408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.211545755609393</v>
+        <v>3.156261754143827</v>
       </c>
       <c r="C13">
-        <v>3.108880947309672</v>
+        <v>3.077839449114094</v>
       </c>
       <c r="D13">
-        <v>0.3776586019572648</v>
+        <v>0.3750084999709031</v>
       </c>
       <c r="E13">
-        <v>0.3403440940976239</v>
+        <v>0.3387309599877995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007067483080776012</v>
       </c>
       <c r="H13">
-        <v>16.60708628140537</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.56443370104552</v>
       </c>
       <c r="J13">
-        <v>1.397762122075463</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.377777022919943</v>
       </c>
       <c r="L13">
-        <v>1.876779600991057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.859660054490405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.129528752007673</v>
+        <v>3.075784095440667</v>
       </c>
       <c r="C14">
-        <v>3.038913048338486</v>
+        <v>3.008873409832802</v>
       </c>
       <c r="D14">
-        <v>0.3691579260610069</v>
+        <v>0.3665881156039745</v>
       </c>
       <c r="E14">
-        <v>0.3329038489626228</v>
+        <v>0.3313254292371255</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007100833171938792</v>
       </c>
       <c r="H14">
-        <v>16.26419447428299</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.22438153961116</v>
       </c>
       <c r="J14">
-        <v>1.364099460833017</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.344692545859942</v>
       </c>
       <c r="L14">
-        <v>1.833042482912873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.816460213425017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.079977127979532</v>
+        <v>3.02715946020794</v>
       </c>
       <c r="C15">
-        <v>2.99648695566907</v>
+        <v>2.967050862667804</v>
       </c>
       <c r="D15">
-        <v>0.3640027475899785</v>
+        <v>0.3614810161889181</v>
       </c>
       <c r="E15">
-        <v>0.3283894233693161</v>
+        <v>0.3268314775475218</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000712116225122017</v>
       </c>
       <c r="H15">
-        <v>16.05605069360905</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.01793755764874</v>
       </c>
       <c r="J15">
-        <v>1.343728265175088</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.32466970028463</v>
       </c>
       <c r="L15">
-        <v>1.806550338179363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.790290684668619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.805542105246559</v>
+        <v>2.7578247332346</v>
       </c>
       <c r="C16">
-        <v>2.75935570056555</v>
+        <v>2.733242827346942</v>
       </c>
       <c r="D16">
-        <v>0.3351804926013955</v>
+        <v>0.3329194677009184</v>
       </c>
       <c r="E16">
-        <v>0.3031171260478871</v>
+        <v>0.3016658673319768</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007236354070886163</v>
       </c>
       <c r="H16">
-        <v>14.88952734265982</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.86062227900703</v>
       </c>
       <c r="J16">
-        <v>1.230435937156514</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.213296191093448</v>
       </c>
       <c r="L16">
-        <v>1.65887859627405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.644381022560253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.644720561440749</v>
+        <v>2.599972811522264</v>
       </c>
       <c r="C17">
-        <v>2.618634050037883</v>
+        <v>2.594457476744537</v>
       </c>
       <c r="D17">
-        <v>0.318070260212167</v>
+        <v>0.3159578896193551</v>
       </c>
       <c r="E17">
-        <v>0.2880883303105009</v>
+        <v>0.2866943861252267</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007306059121737771</v>
       </c>
       <c r="H17">
-        <v>14.1947338129676</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.1710711826521</v>
       </c>
       <c r="J17">
-        <v>1.163663144857424</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.147642243290335</v>
       </c>
       <c r="L17">
-        <v>1.571570444774139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.558088308516929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.554648044175337</v>
+        <v>2.511559992425134</v>
       </c>
       <c r="C18">
-        <v>2.539227683546812</v>
+        <v>2.516133506468577</v>
       </c>
       <c r="D18">
-        <v>0.3084135394080789</v>
+        <v>0.3063831855767347</v>
       </c>
       <c r="E18">
-        <v>0.2795978028267996</v>
+        <v>0.2782342952811732</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007345870870691481</v>
       </c>
       <c r="H18">
-        <v>13.80183344817198</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.78106029637149</v>
       </c>
       <c r="J18">
-        <v>1.12613677537108</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.110741670544726</v>
       </c>
       <c r="L18">
-        <v>1.52241286952696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.509494724768416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.524538937045207</v>
+        <v>2.482005360859119</v>
       </c>
       <c r="C19">
-        <v>2.51258716939941</v>
+        <v>2.489854614449825</v>
       </c>
       <c r="D19">
-        <v>0.3051734860015074</v>
+        <v>0.3031703571540447</v>
       </c>
       <c r="E19">
-        <v>0.2767476549436481</v>
+        <v>0.2753940558089027</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007359308430466627</v>
       </c>
       <c r="H19">
-        <v>13.66987983634959</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.6500653315868</v>
       </c>
       <c r="J19">
-        <v>1.113571568009533</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.098385604394537</v>
       </c>
       <c r="L19">
-        <v>1.505938433996505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.493208131244145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.661581921501238</v>
+        <v>2.616523259937992</v>
       </c>
       <c r="C20">
-        <v>2.633451012967328</v>
+        <v>2.609071685855668</v>
       </c>
       <c r="D20">
-        <v>0.3198720367839911</v>
+        <v>0.3177442157394808</v>
       </c>
       <c r="E20">
-        <v>0.2896718339421298</v>
+        <v>0.288272059539274</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000729866947162261</v>
       </c>
       <c r="H20">
-        <v>14.2679801956254</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.24377299815075</v>
       </c>
       <c r="J20">
-        <v>1.170677628002693</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.154539533454127</v>
       </c>
       <c r="L20">
-        <v>1.580751803393028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.567163729644889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.15347359565294</v>
+        <v>3.099280194284688</v>
       </c>
       <c r="C21">
-        <v>3.059372867091554</v>
+        <v>3.029041119250167</v>
       </c>
       <c r="D21">
-        <v>0.3716438133927795</v>
+        <v>0.3690506544308789</v>
       </c>
       <c r="E21">
-        <v>0.3350801270917074</v>
+        <v>0.3334916793294411</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007091058570648428</v>
       </c>
       <c r="H21">
-        <v>16.36450998076208</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.32387141216861</v>
       </c>
       <c r="J21">
-        <v>1.373934370178077</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.354358868381084</v>
       </c>
       <c r="L21">
-        <v>1.845825921277935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.829087224505059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.504709752047631</v>
+        <v>3.44386284795155</v>
       </c>
       <c r="C22">
-        <v>3.356445356115614</v>
+        <v>3.321787942147751</v>
       </c>
       <c r="D22">
-        <v>0.4077243293462374</v>
+        <v>0.404779575285886</v>
       </c>
       <c r="E22">
-        <v>0.3666205861910043</v>
+        <v>0.3648747722531596</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006951152567892312</v>
       </c>
       <c r="H22">
-        <v>17.81659433843652</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.76351177239536</v>
       </c>
       <c r="J22">
-        <v>1.517537344537615</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.495465810082436</v>
       </c>
       <c r="L22">
-        <v>2.031998983983712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.012922313196995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.314050909458558</v>
+        <v>3.256833339151171</v>
       </c>
       <c r="C23">
-        <v>3.195886712041499</v>
+        <v>3.16358751549626</v>
       </c>
       <c r="D23">
-        <v>0.3882272852600579</v>
+        <v>0.3854755495139273</v>
       </c>
       <c r="E23">
-        <v>0.3495876642594951</v>
+        <v>0.3479296801510685</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007026308789825918</v>
       </c>
       <c r="H23">
-        <v>17.03282779479616</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.98657912203112</v>
       </c>
       <c r="J23">
-        <v>1.43973820329083</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.419027353906742</v>
       </c>
       <c r="L23">
-        <v>1.931248420611496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.913451322184926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.653951548949237</v>
+        <v>2.609033596361598</v>
       </c>
       <c r="C24">
-        <v>2.626747652985273</v>
+        <v>2.602460085363418</v>
       </c>
       <c r="D24">
-        <v>0.3190568983071103</v>
+        <v>0.316936072992803</v>
       </c>
       <c r="E24">
-        <v>0.2889554704799124</v>
+        <v>0.2875583396423735</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007302011134141226</v>
       </c>
       <c r="H24">
-        <v>14.23484533529242</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.21088471882825</v>
       </c>
       <c r="J24">
-        <v>1.16750372344886</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.151418665314765</v>
       </c>
       <c r="L24">
-        <v>1.576597715428534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.56305759674494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.032655317147231</v>
+        <v>1.999198492428889</v>
       </c>
       <c r="C25">
-        <v>2.070109467378018</v>
+        <v>2.05329378828128</v>
       </c>
       <c r="D25">
-        <v>0.2513433090970807</v>
+        <v>0.2497724986630914</v>
       </c>
       <c r="E25">
-        <v>0.2292937396506218</v>
+        <v>0.2280830320799012</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007589131013197065</v>
       </c>
       <c r="H25">
-        <v>11.46791823124832</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.46328687535268</v>
       </c>
       <c r="J25">
-        <v>0.9067219607615868</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8949642144200567</v>
       </c>
       <c r="L25">
-        <v>1.23364883087622</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.223950101138371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.598464761571165</v>
+        <v>1.775345045138465</v>
       </c>
       <c r="C2">
-        <v>1.679439730711238</v>
+        <v>0.3750855749888444</v>
       </c>
       <c r="D2">
-        <v>0.2040143143457556</v>
+        <v>0.2026626930334743</v>
       </c>
       <c r="E2">
-        <v>0.187378528301231</v>
+        <v>0.2474149864955777</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007797965300717279</v>
+        <v>0.0007848263970758378</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.573623975060457</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7236395988308786</v>
+        <v>0.474916775093682</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9954282954055245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8180795413158819</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>8.902890164079764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.347228126582849</v>
+        <v>1.511669942118431</v>
       </c>
       <c r="C3">
-        <v>1.438860614725513</v>
+        <v>0.3160355643492778</v>
       </c>
       <c r="D3">
-        <v>0.1745577722525269</v>
+        <v>0.1738481771073879</v>
       </c>
       <c r="E3">
-        <v>0.1610919741193229</v>
+        <v>0.2132986215658548</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007940100364854661</v>
+        <v>0.0007971873667954541</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.348231912988638</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6148975947332005</v>
+        <v>0.4029875918096906</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.849470572789393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6989756008673069</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.779223023859345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.200545353364618</v>
+        <v>1.355690316394373</v>
       </c>
       <c r="C4">
-        <v>1.295865932815275</v>
+        <v>0.2813179639310732</v>
       </c>
       <c r="D4">
-        <v>0.1570467970291247</v>
+        <v>0.1566416711218324</v>
       </c>
       <c r="E4">
-        <v>0.1454326049879526</v>
+        <v>0.1929169715937746</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008028234816520894</v>
+        <v>0.0008048804558936932</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.615917894547465</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.550867113216853</v>
+        <v>0.3605011976104677</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7631630208985172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6282477946587974</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.106794867837294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.142370242208159</v>
+        <v>1.293389830600177</v>
       </c>
       <c r="C5">
-        <v>1.238583282431307</v>
+        <v>0.267493286013206</v>
       </c>
       <c r="D5">
-        <v>0.1500316451671893</v>
+        <v>0.1497327299369005</v>
       </c>
       <c r="E5">
-        <v>0.1391520046127006</v>
+        <v>0.1847308999408313</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008064438189546605</v>
+        <v>0.0008080465049354639</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.321640089714151</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5253507378174689</v>
+        <v>0.3435442320296644</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7286888096819411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5999360943138186</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.836434840127936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.132798804566022</v>
+        <v>1.283115087338189</v>
       </c>
       <c r="C6">
-        <v>1.229125991651415</v>
+        <v>0.2652155095326236</v>
       </c>
       <c r="D6">
-        <v>0.1488734372233438</v>
+        <v>0.1485911985904238</v>
       </c>
       <c r="E6">
-        <v>0.1381146621109899</v>
+        <v>0.1833782226993108</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008070469005121544</v>
+        <v>0.0008085742366260679</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.273001805105963</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5211456237570573</v>
+        <v>0.3407483255608099</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7230028762834735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5952632758726466</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.791742834093952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.199754679613903</v>
+        <v>1.354845275471661</v>
       </c>
       <c r="C7">
-        <v>1.295089637061267</v>
+        <v>0.2811302899146142</v>
       </c>
       <c r="D7">
-        <v>0.1569517287372122</v>
+        <v>0.1565481020426063</v>
       </c>
       <c r="E7">
-        <v>0.1453475194157221</v>
+        <v>0.1928061150085085</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008028721816300945</v>
+        <v>0.0008049230222653976</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.611933478215008</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5505207918906905</v>
+        <v>0.3602711465184143</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.762695433520598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6278640214260989</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.103134793798375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.510066069719159</v>
+        <v>1.683055953788823</v>
       </c>
       <c r="C8">
-        <v>1.595379006171299</v>
+        <v>0.354364166606274</v>
       </c>
       <c r="D8">
-        <v>0.1937226810343873</v>
+        <v>0.1926142208468917</v>
       </c>
       <c r="E8">
-        <v>0.1782020877017487</v>
+        <v>0.2355196060326179</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007846840348114997</v>
+        <v>0.0007890702461842855</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.146355174939913</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6855043557146772</v>
+        <v>0.4497249453977901</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9443265246704939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7764534482711341</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.511338059588411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.195570469962007</v>
+        <v>2.385722864415641</v>
       </c>
       <c r="C9">
-        <v>2.232560641152475</v>
+        <v>0.5136488279101172</v>
       </c>
       <c r="D9">
-        <v>0.2717047434382636</v>
+        <v>0.2682199300990504</v>
       </c>
       <c r="E9">
-        <v>0.2475394741620391</v>
+        <v>0.3249767399602561</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007493161227243659</v>
+        <v>0.0007585351965182667</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.36371734345849</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9780702462443145</v>
+        <v>0.6419763984321136</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.3342144304481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.091909400095702</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.45122890754084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.77618201958478</v>
+        <v>2.958694053976842</v>
       </c>
       <c r="C10">
-        <v>2.749296958843615</v>
+        <v>0.6462188776885682</v>
       </c>
       <c r="D10">
-        <v>0.3348811524158606</v>
+        <v>0.328485454257688</v>
       </c>
       <c r="E10">
-        <v>0.3033961071586191</v>
+        <v>0.3962187034216313</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007228357182713631</v>
+        <v>0.0007359823855081209</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.94026191888923</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.220912789780741</v>
+        <v>0.7995276185720499</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.654378379441624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.346918188235193</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.78698778899221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.066446668629851</v>
+        <v>3.237801174813796</v>
       </c>
       <c r="C11">
-        <v>3.000851203363993</v>
+        <v>0.7116994041547855</v>
       </c>
       <c r="D11">
-        <v>0.3656085412503387</v>
+        <v>0.3574352779991301</v>
       </c>
       <c r="E11">
-        <v>0.3304635996736636</v>
+        <v>0.4304232308116909</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007104726393473599</v>
+        <v>0.00072556371913685</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.18479581035359</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.340849494695519</v>
+        <v>0.8765362253614626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.811438864979976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.470502081275001</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.90734607785851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.181216494691512</v>
+        <v>3.346820151274017</v>
       </c>
       <c r="C12">
-        <v>3.099161078880627</v>
+        <v>0.7374388549038144</v>
       </c>
       <c r="D12">
-        <v>0.3776114219510873</v>
+        <v>0.3686738334741335</v>
       </c>
       <c r="E12">
-        <v>0.3410191813829542</v>
+        <v>0.4436986740862494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007057215185507743</v>
+        <v>0.0007215810610030984</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.66946971030234</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.388022185885561</v>
+        <v>0.9066627972892078</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.873027294819408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.518666940693393</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.34203826261529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.156261754143827</v>
+        <v>3.323180398244517</v>
       </c>
       <c r="C13">
-        <v>3.077839449114094</v>
+        <v>0.7318496921726023</v>
       </c>
       <c r="D13">
-        <v>0.3750084999709031</v>
+        <v>0.3662401122350047</v>
       </c>
       <c r="E13">
-        <v>0.3387309599877995</v>
+        <v>0.4408240047424457</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007067483080776012</v>
+        <v>0.0007224407272081806</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.56443370104552</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.377777022919943</v>
+        <v>0.9001278761239675</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.859660054490405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.508227841623864</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.24791581128574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.075784095440667</v>
+        <v>3.246699079334064</v>
       </c>
       <c r="C14">
-        <v>3.008873409832802</v>
+        <v>0.7137967647433356</v>
       </c>
       <c r="D14">
-        <v>0.3665881156039745</v>
+        <v>0.358353986622177</v>
       </c>
       <c r="E14">
-        <v>0.3313254292371255</v>
+        <v>0.4315085101936731</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007100833171938792</v>
+        <v>0.0007252369070907409</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.22438153961116</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.344692545859942</v>
+        <v>0.8789941001210977</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.816460213425017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.474435414850973</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.94288525094595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.02715946020794</v>
+        <v>3.200308242955259</v>
       </c>
       <c r="C15">
-        <v>2.967050862667804</v>
+        <v>0.7028685006106343</v>
       </c>
       <c r="D15">
-        <v>0.3614810161889181</v>
+        <v>0.3535613041893129</v>
       </c>
       <c r="E15">
-        <v>0.3268314775475218</v>
+        <v>0.4258467441160434</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000712116225122017</v>
+        <v>0.0007269442968036795</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.01793755764874</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.32466970028463</v>
+        <v>0.8661814631209097</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.790290684668619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.453923907906997</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.75747632760329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.7578247332346</v>
+        <v>2.940878977442935</v>
       </c>
       <c r="C16">
-        <v>2.733242827346942</v>
+        <v>0.6420595804846414</v>
       </c>
       <c r="D16">
-        <v>0.3329194677009184</v>
+        <v>0.326628821070841</v>
       </c>
       <c r="E16">
-        <v>0.3016658673319768</v>
+        <v>0.3940246820833906</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007236354070886163</v>
+        <v>0.000736658908970342</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.86062227900703</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.213296191093448</v>
+        <v>0.7946181127475782</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.644381022560253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.339016313384008</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.71510321267945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.599972811522264</v>
+        <v>2.786884247137436</v>
       </c>
       <c r="C17">
-        <v>2.594457476744537</v>
+        <v>0.6062069631471161</v>
       </c>
       <c r="D17">
-        <v>0.3159578896193551</v>
+        <v>0.3105350205102013</v>
       </c>
       <c r="E17">
-        <v>0.2866943861252267</v>
+        <v>0.3750043059082842</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007306059121737771</v>
+        <v>0.0007425684871569596</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.1710711826521</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.147642243290335</v>
+        <v>0.7522091907496176</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.558088308516929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.270641788683974</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.09180666206208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.511559992425134</v>
+        <v>2.699999504325945</v>
       </c>
       <c r="C18">
-        <v>2.516133506468577</v>
+        <v>0.5860579877359839</v>
       </c>
       <c r="D18">
-        <v>0.3063831855767347</v>
+        <v>0.3014187863594913</v>
       </c>
       <c r="E18">
-        <v>0.2782342952811732</v>
+        <v>0.3642287167742353</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007345870870691481</v>
+        <v>0.0007459535650693987</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.78106029637149</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.110741670544726</v>
+        <v>0.7283048363155586</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.509494724768416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.232008022517135</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.73859182578411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.482005360859119</v>
+        <v>2.670854005945273</v>
       </c>
       <c r="C19">
-        <v>2.489854614449825</v>
+        <v>0.5793117663549765</v>
       </c>
       <c r="D19">
-        <v>0.3031703571540447</v>
+        <v>0.2983548402095551</v>
       </c>
       <c r="E19">
-        <v>0.2753940558089027</v>
+        <v>0.3606067991258755</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007359308430466627</v>
+        <v>0.0007470976829558719</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.6500653315868</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.098385604394537</v>
+        <v>0.720289823357156</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.493208131244145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.219039030724261</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.61985093045092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.616523259937992</v>
+        <v>2.803098097988254</v>
       </c>
       <c r="C20">
-        <v>2.609071685855668</v>
+        <v>0.6099733492931705</v>
       </c>
       <c r="D20">
-        <v>0.3177442157394808</v>
+        <v>0.3122333339137668</v>
       </c>
       <c r="E20">
-        <v>0.288272059539274</v>
+        <v>0.3770116197580364</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000729866947162261</v>
+        <v>0.000741940940266961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.24377299815075</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.154539533454127</v>
+        <v>0.756671896767827</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.567163729644889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.277846814127614</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.15759647336046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.099280194284688</v>
+        <v>3.269066975757482</v>
       </c>
       <c r="C21">
-        <v>3.029041119250167</v>
+        <v>0.719071889137922</v>
       </c>
       <c r="D21">
-        <v>0.3690506544308789</v>
+        <v>0.3606623375070797</v>
       </c>
       <c r="E21">
-        <v>0.3334916793294411</v>
+        <v>0.4342353377849193</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007091058570648428</v>
+        <v>0.0007244167478406283</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.32387141216861</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.354358868381084</v>
+        <v>0.8851735805078889</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.829087224505059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.484321433859378</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.03217732067321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.44386284795155</v>
+        <v>3.593446990313225</v>
       </c>
       <c r="C22">
-        <v>3.321787942147751</v>
+        <v>0.796007726127101</v>
       </c>
       <c r="D22">
-        <v>0.404779575285886</v>
+        <v>0.3939579737141088</v>
       </c>
       <c r="E22">
-        <v>0.3648747722531596</v>
+        <v>0.4735592572197831</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006951152567892312</v>
+        <v>0.0007127365039155064</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.76351177239536</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.495465810082436</v>
+        <v>0.9749144429767753</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.012922313196995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.627412592874407</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.31955966772875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.256833339151171</v>
+        <v>3.418233179689082</v>
       </c>
       <c r="C23">
-        <v>3.16358751549626</v>
+        <v>0.7543493799499856</v>
       </c>
       <c r="D23">
-        <v>0.3854755495139273</v>
+        <v>0.3760149536393698</v>
       </c>
       <c r="E23">
-        <v>0.3479296801510685</v>
+        <v>0.4523694043755881</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007026308789825918</v>
+        <v>0.0007189970300086913</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.98657912203112</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.419027353906742</v>
+        <v>0.9264116493262833</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.913451322184926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.550185599571421</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.62591656481641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.609033596361598</v>
+        <v>2.795762728505451</v>
       </c>
       <c r="C24">
-        <v>2.602460085363418</v>
+        <v>0.6082691377492893</v>
       </c>
       <c r="D24">
-        <v>0.316936072992803</v>
+        <v>0.3114651058375841</v>
       </c>
       <c r="E24">
-        <v>0.2875583396423735</v>
+        <v>0.3761036210852708</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007302011134141226</v>
+        <v>0.0007422246916990211</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.21088471882825</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.151418665314765</v>
+        <v>0.7546528355137312</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.56305759674494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.274587337488356</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.12783708433659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.999198492428889</v>
+        <v>2.187417446922893</v>
       </c>
       <c r="C25">
-        <v>2.05329378828128</v>
+        <v>0.46833606156153</v>
       </c>
       <c r="D25">
-        <v>0.2497724986630914</v>
+        <v>0.2470839705316195</v>
       </c>
       <c r="E25">
-        <v>0.2280830320799012</v>
+        <v>0.29997835052216</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007589131013197065</v>
+        <v>0.0007667784683579212</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.46328687535268</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8949642144200567</v>
+        <v>0.5876139071330613</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.223950101138371</v>
+        <v>1.003208990662166</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.63064830185101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.775345045138465</v>
+        <v>0.7926254341770971</v>
       </c>
       <c r="C2">
-        <v>0.3750855749888444</v>
+        <v>0.4992505927020545</v>
       </c>
       <c r="D2">
-        <v>0.2026626930334743</v>
+        <v>0.1854434840046224</v>
       </c>
       <c r="E2">
-        <v>0.2474149864955777</v>
+        <v>0.009918880782979755</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007848263970758378</v>
+        <v>0.0008557459997952529</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.846868740681572</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.474916775093682</v>
+        <v>1.287577032678968</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3408889612862964</v>
       </c>
       <c r="M2">
-        <v>0.8180795413158819</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.902890164079764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.511669942118431</v>
+        <v>0.6926946751759147</v>
       </c>
       <c r="C3">
-        <v>0.3160355643492778</v>
+        <v>0.4327922673404316</v>
       </c>
       <c r="D3">
-        <v>0.1738481771073879</v>
+        <v>0.1597352713865519</v>
       </c>
       <c r="E3">
-        <v>0.2132986215658548</v>
+        <v>0.009543138943482354</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007971873667954541</v>
+        <v>0.0008667583084518601</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.750252029163676</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4029875918096906</v>
+        <v>1.12227078339302</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3016620441156306</v>
       </c>
       <c r="M3">
-        <v>0.6989756008673069</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.779223023859345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355690316394373</v>
+        <v>0.6348483178689435</v>
       </c>
       <c r="C4">
-        <v>0.2813179639310732</v>
+        <v>0.3927810614840723</v>
       </c>
       <c r="D4">
-        <v>0.1566416711218324</v>
+        <v>0.1443023952907225</v>
       </c>
       <c r="E4">
-        <v>0.1929169715937746</v>
+        <v>0.009341322928595019</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008048804558936932</v>
+        <v>0.0008736491948100339</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.088502382849043</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3605011976104677</v>
+        <v>1.024691203073473</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2782329067785696</v>
       </c>
       <c r="M4">
-        <v>0.6282477946587974</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.106794867837294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293389830600177</v>
+        <v>0.6120591968037274</v>
       </c>
       <c r="C5">
-        <v>0.267493286013206</v>
+        <v>0.3766455573774579</v>
       </c>
       <c r="D5">
-        <v>0.1497327299369005</v>
+        <v>0.138089007045366</v>
       </c>
       <c r="E5">
-        <v>0.1847308999408313</v>
+        <v>0.009265887381149085</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008080465049354639</v>
+        <v>0.0008764930624406391</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.821241054124101</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3435442320296644</v>
+        <v>0.9857929068877525</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2688301988651602</v>
       </c>
       <c r="M5">
-        <v>0.5999360943138186</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.836434840127936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283115087338189</v>
+        <v>0.6083197193621857</v>
       </c>
       <c r="C6">
-        <v>0.2652155095326236</v>
+        <v>0.3739756701434374</v>
       </c>
       <c r="D6">
-        <v>0.1485911985904238</v>
+        <v>0.1370614947439464</v>
       </c>
       <c r="E6">
-        <v>0.1833782226993108</v>
+        <v>0.009253759913958604</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008085742366260679</v>
+        <v>0.0008769675344445007</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.776994119687998</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3407483255608099</v>
+        <v>0.9793829430512631</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.267277084250793</v>
       </c>
       <c r="M6">
-        <v>0.5952632758726466</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.791742834093952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354845275471661</v>
+        <v>0.6345379257745662</v>
       </c>
       <c r="C7">
-        <v>0.2811302899146142</v>
+        <v>0.3925628044925986</v>
       </c>
       <c r="D7">
-        <v>0.1565481020426063</v>
+        <v>0.1442183092068632</v>
       </c>
       <c r="E7">
-        <v>0.1928061150085085</v>
+        <v>0.009340278592594231</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008049230222653976</v>
+        <v>0.0008736873994388012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.084888886317685</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3602711465184143</v>
+        <v>1.024163248305911</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2781055372303598</v>
       </c>
       <c r="M7">
-        <v>0.6278640214260989</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.103134793798375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.683055953788823</v>
+        <v>0.7573771416284387</v>
       </c>
       <c r="C8">
-        <v>0.354364166606274</v>
+        <v>0.4761515384972483</v>
       </c>
       <c r="D8">
-        <v>0.1926142208468917</v>
+        <v>0.1764980162472796</v>
       </c>
       <c r="E8">
-        <v>0.2355196060326179</v>
+        <v>0.00978303699071148</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007890702461842855</v>
+        <v>0.0008595182843906278</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.466031829964493</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4497249453977901</v>
+        <v>1.229689941109029</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3272144533445385</v>
       </c>
       <c r="M8">
-        <v>0.7764534482711341</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.511338059588411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385722864415641</v>
+        <v>1.031282234184033</v>
       </c>
       <c r="C9">
-        <v>0.5136488279101172</v>
+        <v>0.6479392549805709</v>
       </c>
       <c r="D9">
-        <v>0.2682199300990504</v>
+        <v>0.2432567561535279</v>
       </c>
       <c r="E9">
-        <v>0.3249767399602561</v>
+        <v>0.01090412435413501</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007585351965182667</v>
+        <v>0.0008325908333851073</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.29226888125413</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6419763984321136</v>
+        <v>1.670009072020093</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4297653554198178</v>
       </c>
       <c r="M9">
-        <v>1.091909400095702</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.45122890754084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.958694053976842</v>
+        <v>1.261116221904985</v>
       </c>
       <c r="C10">
-        <v>0.6462188776885682</v>
+        <v>0.781497148727766</v>
       </c>
       <c r="D10">
-        <v>0.328485454257688</v>
+        <v>0.2954937843486789</v>
       </c>
       <c r="E10">
-        <v>0.3962187034216313</v>
+        <v>0.01192021112933439</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007359823855081209</v>
+        <v>0.0008130586401783138</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.48267019927567</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7995276185720499</v>
+        <v>2.02637210702963</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5106105074454348</v>
       </c>
       <c r="M10">
-        <v>1.346918188235193</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.78698778899221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237801174813796</v>
+        <v>1.374233274566564</v>
       </c>
       <c r="C11">
-        <v>0.7116994041547855</v>
+        <v>0.844546871032577</v>
       </c>
       <c r="D11">
-        <v>0.3574352779991301</v>
+        <v>0.320245748552594</v>
       </c>
       <c r="E11">
-        <v>0.4304232308116909</v>
+        <v>0.01243467179646096</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00072556371913685</v>
+        <v>0.0008041535167334797</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.51537163783996</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8765362253614626</v>
+        <v>2.198426424684357</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5490455616284322</v>
       </c>
       <c r="M11">
-        <v>1.470502081275001</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.90734607785851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.346820151274017</v>
+        <v>1.418542148631246</v>
       </c>
       <c r="C12">
-        <v>0.7374388549038144</v>
+        <v>0.8688227445517498</v>
       </c>
       <c r="D12">
-        <v>0.3686738334741335</v>
+        <v>0.3297909759143351</v>
       </c>
       <c r="E12">
-        <v>0.4436986740862494</v>
+        <v>0.01263805626772019</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007215810610030984</v>
+        <v>0.0008007710091542108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.91281136905911</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9066627972892078</v>
+        <v>2.265296780283137</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5638853528248831</v>
       </c>
       <c r="M12">
-        <v>1.518666940693393</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.34203826261529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.323180398244517</v>
+        <v>1.408929516899832</v>
       </c>
       <c r="C13">
-        <v>0.7318496921726023</v>
+        <v>0.8635754338393156</v>
       </c>
       <c r="D13">
-        <v>0.3662401122350047</v>
+        <v>0.3277270450368519</v>
       </c>
       <c r="E13">
-        <v>0.4408240047424457</v>
+        <v>0.01259385375227673</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007224407272081806</v>
+        <v>0.0008015000863545769</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.82691115881812</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9001278761239675</v>
+        <v>2.250813510481805</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5606758122224562</v>
       </c>
       <c r="M13">
-        <v>1.508227841623864</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.24791581128574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.246699079334064</v>
+        <v>1.377847495994956</v>
       </c>
       <c r="C14">
-        <v>0.7137967647433356</v>
+        <v>0.8465355887147439</v>
       </c>
       <c r="D14">
-        <v>0.358353986622177</v>
+        <v>0.3210273977098836</v>
       </c>
       <c r="E14">
-        <v>0.4315085101936731</v>
+        <v>0.01245122587623904</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007252369070907409</v>
+        <v>0.0008038754906170668</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.54793400752521</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8789941001210977</v>
+        <v>2.203891632297598</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5502604240233921</v>
       </c>
       <c r="M14">
-        <v>1.474435414850973</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.94288525094595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.200308242955259</v>
+        <v>1.359008800324887</v>
       </c>
       <c r="C15">
-        <v>0.7028685006106343</v>
+        <v>0.83615263640732</v>
       </c>
       <c r="D15">
-        <v>0.3535613041893129</v>
+        <v>0.3169470782682851</v>
       </c>
       <c r="E15">
-        <v>0.4258467441160434</v>
+        <v>0.01236501279642965</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007269442968036795</v>
+        <v>0.0008053289039465072</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.37792112668234</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8661814631209097</v>
+        <v>2.175383710532543</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.543919384044429</v>
       </c>
       <c r="M15">
-        <v>1.453923907906997</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.75747632760329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.940878977442935</v>
+        <v>1.253915776880064</v>
       </c>
       <c r="C16">
-        <v>0.6420595804846414</v>
+        <v>0.7774285958678604</v>
       </c>
       <c r="D16">
-        <v>0.326628821070841</v>
+        <v>0.293898528834788</v>
       </c>
       <c r="E16">
-        <v>0.3940246820833906</v>
+        <v>0.01188772730041343</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000736658908970342</v>
+        <v>0.0008136396024530473</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.41600537079839</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7946181127475782</v>
+        <v>2.015351384637057</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.508135867766569</v>
       </c>
       <c r="M16">
-        <v>1.339016313384008</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.71510321267945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.786884247137436</v>
+        <v>1.191796650409685</v>
       </c>
       <c r="C17">
-        <v>0.6062069631471161</v>
+        <v>0.7420370623143526</v>
       </c>
       <c r="D17">
-        <v>0.3105350205102013</v>
+        <v>0.2800320069245714</v>
       </c>
       <c r="E17">
-        <v>0.3750043059082842</v>
+        <v>0.01160900348511262</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007425684871569596</v>
+        <v>0.0008187279531887549</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.83595645411174</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7522091907496176</v>
+        <v>1.919911515300896</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4866393172488301</v>
       </c>
       <c r="M17">
-        <v>1.270641788683974</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.09180666206208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.699999504325945</v>
+        <v>1.156856578048036</v>
       </c>
       <c r="C18">
-        <v>0.5860579877359839</v>
+        <v>0.7218917842131702</v>
       </c>
       <c r="D18">
-        <v>0.3014187863594913</v>
+        <v>0.2721473699931778</v>
       </c>
       <c r="E18">
-        <v>0.3642287167742353</v>
+        <v>0.01145353263761706</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007459535650693987</v>
+        <v>0.0008216532892020014</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.50566181510291</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7283048363155586</v>
+        <v>1.865932888969922</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.47442790267921</v>
       </c>
       <c r="M18">
-        <v>1.232008022517135</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.73859182578411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.670854005945273</v>
+        <v>1.145155358839617</v>
       </c>
       <c r="C19">
-        <v>0.5793117663549765</v>
+        <v>0.7151052295374427</v>
       </c>
       <c r="D19">
-        <v>0.2983548402095551</v>
+        <v>0.2694925720070529</v>
       </c>
       <c r="E19">
-        <v>0.3606067991258755</v>
+        <v>0.01140169550717651</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007470976829558719</v>
+        <v>0.0008226437326595168</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.39437023680549</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.720289823357156</v>
+        <v>1.847806047531463</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4703182822326966</v>
       </c>
       <c r="M19">
-        <v>1.219039030724261</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.61985093045092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.803098097988254</v>
+        <v>1.198326046938718</v>
       </c>
       <c r="C20">
-        <v>0.6099733492931705</v>
+        <v>0.7457822433117656</v>
       </c>
       <c r="D20">
-        <v>0.3122333339137668</v>
+        <v>0.2814985015146902</v>
       </c>
       <c r="E20">
-        <v>0.3770116197580364</v>
+        <v>0.01163816572890752</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000741940940266961</v>
+        <v>0.0008181864790526368</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.89735081426724</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.756671896767827</v>
+        <v>1.929974551893793</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4889115313097392</v>
       </c>
       <c r="M20">
-        <v>1.277846814127614</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.15759647336046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.269066975757482</v>
+        <v>1.38693487066854</v>
       </c>
       <c r="C21">
-        <v>0.719071889137922</v>
+        <v>0.8515291134024494</v>
       </c>
       <c r="D21">
-        <v>0.3606623375070797</v>
+        <v>0.3229903068459237</v>
       </c>
       <c r="E21">
-        <v>0.4342353377849193</v>
+        <v>0.01249287719032388</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007244167478406283</v>
+        <v>0.000803178123759428</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.62969294786973</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8851735805078889</v>
+        <v>2.217624558097071</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5533115178631647</v>
       </c>
       <c r="M21">
-        <v>1.484321433859378</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03217732067321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.593446990313225</v>
+        <v>1.518941663316212</v>
       </c>
       <c r="C22">
-        <v>0.796007726127101</v>
+        <v>0.9230168516371577</v>
       </c>
       <c r="D22">
-        <v>0.3939579737141088</v>
+        <v>0.3511294516368935</v>
       </c>
       <c r="E22">
-        <v>0.4735592572197831</v>
+        <v>0.0131020670514701</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007127365039155064</v>
+        <v>0.0007933045468159219</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.7997572160935</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9749144429767753</v>
+        <v>2.41580513605723</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5970917567936169</v>
       </c>
       <c r="M22">
-        <v>1.627412592874407</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.31955966772875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.418233179689082</v>
+        <v>1.447594397213351</v>
       </c>
       <c r="C23">
-        <v>0.7543493799499856</v>
+        <v>0.8846182440071857</v>
       </c>
       <c r="D23">
-        <v>0.3760149536393698</v>
+        <v>0.3360061473141229</v>
       </c>
       <c r="E23">
-        <v>0.4523694043755881</v>
+        <v>0.01277190064834066</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007189970300086913</v>
+        <v>0.0007985830336999907</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.17136429749496</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9264116493262833</v>
+        <v>2.30899045578127</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5735528572769084</v>
       </c>
       <c r="M23">
-        <v>1.550185599571421</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.62591656481641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.795762728505451</v>
+        <v>1.19537171657214</v>
       </c>
       <c r="C24">
-        <v>0.6082691377492893</v>
+        <v>0.7440884235977876</v>
       </c>
       <c r="D24">
-        <v>0.3114651058375841</v>
+        <v>0.2808352292261702</v>
       </c>
       <c r="E24">
-        <v>0.3761036210852708</v>
+        <v>0.01162496669451585</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007422246916990211</v>
+        <v>0.0008184312787521242</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.86958459384508</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7546528355137312</v>
+        <v>1.925422298633606</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4878838081283305</v>
       </c>
       <c r="M24">
-        <v>1.274587337488356</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.12783708433659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.187417446922893</v>
+        <v>0.9528558623166248</v>
       </c>
       <c r="C25">
-        <v>0.46833606156153</v>
+        <v>0.6003833272605164</v>
       </c>
       <c r="D25">
-        <v>0.2470839705316195</v>
+        <v>0.2247245955947221</v>
       </c>
       <c r="E25">
-        <v>0.29997835052216</v>
+        <v>0.01057016004191524</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007667784683579212</v>
+        <v>0.0008398092123226072</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.51110668829253</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5876139071330613</v>
+        <v>1.545949054990757</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4011941538036297</v>
       </c>
       <c r="M25">
-        <v>1.003208990662166</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.63064830185101</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7926254341770971</v>
+        <v>1.074334117552723</v>
       </c>
       <c r="C2">
-        <v>0.4992505927020545</v>
+        <v>0.2111556234066256</v>
       </c>
       <c r="D2">
-        <v>0.1854434840046224</v>
+        <v>0.07589854406890595</v>
       </c>
       <c r="E2">
-        <v>0.009918880782979755</v>
+        <v>0.02972752957218194</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008557459997952529</v>
+        <v>0.002646906146153501</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.846868740681572</v>
+        <v>5.689741979547478</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.287577032678968</v>
+        <v>1.168990046916491</v>
       </c>
       <c r="L2">
-        <v>0.3408889612862964</v>
+        <v>0.2975616675253576</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6926946751759147</v>
+        <v>1.073948960523239</v>
       </c>
       <c r="C3">
-        <v>0.4327922673404316</v>
+        <v>0.1924337519348285</v>
       </c>
       <c r="D3">
-        <v>0.1597352713865519</v>
+        <v>0.06924553444146397</v>
       </c>
       <c r="E3">
-        <v>0.009543138943482354</v>
+        <v>0.0299793619647204</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008667583084518601</v>
+        <v>0.002652928135165718</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.750252029163676</v>
+        <v>5.359892256295893</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.12227078339302</v>
+        <v>1.145283538329238</v>
       </c>
       <c r="L3">
-        <v>0.3016620441156306</v>
+        <v>0.2890363637149989</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6348483178689435</v>
+        <v>1.075003360951683</v>
       </c>
       <c r="C4">
-        <v>0.3927810614840723</v>
+        <v>0.1809936237831096</v>
       </c>
       <c r="D4">
-        <v>0.1443023952907225</v>
+        <v>0.06520433084868671</v>
       </c>
       <c r="E4">
-        <v>0.009341322928595019</v>
+        <v>0.0301527770937895</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008736491948100339</v>
+        <v>0.002656811085476234</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.088502382849043</v>
+        <v>5.156806094405141</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.024691203073473</v>
+        <v>1.131886134249783</v>
       </c>
       <c r="L4">
-        <v>0.2782329067785696</v>
+        <v>0.2839698418084851</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6120591968037274</v>
+        <v>1.075756309818189</v>
       </c>
       <c r="C5">
-        <v>0.3766455573774579</v>
+        <v>0.1763451283723043</v>
       </c>
       <c r="D5">
-        <v>0.138089007045366</v>
+        <v>0.06356832596226525</v>
       </c>
       <c r="E5">
-        <v>0.009265887381149085</v>
+        <v>0.03022817265433453</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008764930624406391</v>
+        <v>0.002658440228613066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.821241054124101</v>
+        <v>5.073897132045857</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9857929068877525</v>
+        <v>1.126716361719019</v>
       </c>
       <c r="L5">
-        <v>0.2688301988651602</v>
+        <v>0.2819472387981676</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6083197193621857</v>
+        <v>1.075900822848837</v>
       </c>
       <c r="C6">
-        <v>0.3739756701434374</v>
+        <v>0.1755740493134965</v>
       </c>
       <c r="D6">
-        <v>0.1370614947439464</v>
+        <v>0.06329731656492754</v>
       </c>
       <c r="E6">
-        <v>0.009253759913958604</v>
+        <v>0.03024097764560629</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008769675344445007</v>
+        <v>0.002658713579109074</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.776994119687998</v>
+        <v>5.060120841756742</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9793829430512631</v>
+        <v>1.125875382678601</v>
       </c>
       <c r="L6">
-        <v>0.267277084250793</v>
+        <v>0.2816139205104093</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6345379257745662</v>
+        <v>1.07501220829559</v>
       </c>
       <c r="C7">
-        <v>0.3925628044925986</v>
+        <v>0.1809308786476436</v>
       </c>
       <c r="D7">
-        <v>0.1442183092068632</v>
+        <v>0.06518222355741443</v>
       </c>
       <c r="E7">
-        <v>0.009340278592594231</v>
+        <v>0.03015377475919045</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008736873994388012</v>
+        <v>0.002656832866867009</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.084888886317685</v>
+        <v>5.155688573922873</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.024163248305911</v>
+        <v>1.131815241580512</v>
       </c>
       <c r="L7">
-        <v>0.2781055372303598</v>
+        <v>0.2839423943088946</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7573771416284387</v>
+        <v>1.073932575024543</v>
       </c>
       <c r="C8">
-        <v>0.4761515384972483</v>
+        <v>0.2046886068584968</v>
       </c>
       <c r="D8">
-        <v>0.1764980162472796</v>
+        <v>0.0735953853725988</v>
       </c>
       <c r="E8">
-        <v>0.00978303699071148</v>
+        <v>0.02981046333363402</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008595182843906278</v>
+        <v>0.002648944153322797</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.466031829964493</v>
+        <v>5.576119509886297</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.229689941109029</v>
+        <v>1.160574654073514</v>
       </c>
       <c r="L8">
-        <v>0.3272144533445385</v>
+        <v>0.2945871319302995</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031282234184033</v>
+        <v>1.082122153093621</v>
       </c>
       <c r="C9">
-        <v>0.6479392549805709</v>
+        <v>0.2517369893205057</v>
       </c>
       <c r="D9">
-        <v>0.2432567561535279</v>
+        <v>0.09045034988771761</v>
       </c>
       <c r="E9">
-        <v>0.01090412435413501</v>
+        <v>0.02928621406136234</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008325908333851073</v>
+        <v>0.002634937299056481</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.29226888125413</v>
+        <v>6.396636944722815</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.670009072020093</v>
+        <v>1.226239681180289</v>
       </c>
       <c r="L9">
-        <v>0.4297653554198178</v>
+        <v>0.3168060165587718</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.261116221904985</v>
+        <v>1.094516979205508</v>
       </c>
       <c r="C10">
-        <v>0.781497148727766</v>
+        <v>0.2866174384332396</v>
       </c>
       <c r="D10">
-        <v>0.2954937843486789</v>
+        <v>0.1030657395268406</v>
       </c>
       <c r="E10">
-        <v>0.01192021112933439</v>
+        <v>0.02899177779832307</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008130586401783138</v>
+        <v>0.002625526496638023</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.48267019927567</v>
+        <v>6.997779804645063</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.02637210702963</v>
+        <v>1.280248470232834</v>
       </c>
       <c r="L10">
-        <v>0.5106105074454348</v>
+        <v>0.3339678213670823</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.374233274566564</v>
+        <v>1.101562023745402</v>
       </c>
       <c r="C11">
-        <v>0.844546871032577</v>
+        <v>0.3025612921090044</v>
       </c>
       <c r="D11">
-        <v>0.320245748552594</v>
+        <v>0.1088584734513063</v>
       </c>
       <c r="E11">
-        <v>0.01243467179646096</v>
+        <v>0.02887751924505189</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008041535167334797</v>
+        <v>0.00262143383854454</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.51537163783996</v>
+        <v>7.271047796928883</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.198426424684357</v>
+        <v>1.306096229573598</v>
       </c>
       <c r="L11">
-        <v>0.5490455616284322</v>
+        <v>0.3419611579002719</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.418542148631246</v>
+        <v>1.104433798696107</v>
       </c>
       <c r="C12">
-        <v>0.8688227445517498</v>
+        <v>0.3086103850343136</v>
       </c>
       <c r="D12">
-        <v>0.3297909759143351</v>
+        <v>0.1110600311998127</v>
       </c>
       <c r="E12">
-        <v>0.01263805626772019</v>
+        <v>0.02883708185312983</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008007710091542108</v>
+        <v>0.002619910946453974</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.91281136905911</v>
+        <v>7.374511301917721</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.265296780283137</v>
+        <v>1.3160700378819</v>
       </c>
       <c r="L12">
-        <v>0.5638853528248831</v>
+        <v>0.3450151244876167</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.408929516899832</v>
+        <v>1.103806211331005</v>
       </c>
       <c r="C13">
-        <v>0.8635754338393156</v>
+        <v>0.3073070851594082</v>
       </c>
       <c r="D13">
-        <v>0.3277270450368519</v>
+        <v>0.1105855280981132</v>
       </c>
       <c r="E13">
-        <v>0.01259385375227673</v>
+        <v>0.02884566491450258</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008015000863545769</v>
+        <v>0.002620237734724152</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.82691115881812</v>
+        <v>7.352229172527927</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.250813510481805</v>
+        <v>1.313913704174524</v>
       </c>
       <c r="L13">
-        <v>0.5606758122224562</v>
+        <v>0.3443561901428751</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.377847495994956</v>
+        <v>1.101794188617873</v>
       </c>
       <c r="C14">
-        <v>0.8465355887147439</v>
+        <v>0.3030587212584237</v>
       </c>
       <c r="D14">
-        <v>0.3210273977098836</v>
+        <v>0.1090394358211881</v>
       </c>
       <c r="E14">
-        <v>0.01245122587623904</v>
+        <v>0.02887413572358533</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008038754906170668</v>
+        <v>0.002621308011241811</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.54793400752521</v>
+        <v>7.279560082526416</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.203891632297598</v>
+        <v>1.306913045442997</v>
       </c>
       <c r="L14">
-        <v>0.5502604240233921</v>
+        <v>0.3422118656161075</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.359008800324887</v>
+        <v>1.100588380845494</v>
       </c>
       <c r="C15">
-        <v>0.83615263640732</v>
+        <v>0.3004579883287022</v>
       </c>
       <c r="D15">
-        <v>0.3169470782682851</v>
+        <v>0.1080934548689783</v>
       </c>
       <c r="E15">
-        <v>0.01236501279642965</v>
+        <v>0.02889194343793555</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008053289039465072</v>
+        <v>0.002621967085311222</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.37792112668234</v>
+        <v>7.235046258932698</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.175383710532543</v>
+        <v>1.302649197289185</v>
       </c>
       <c r="L15">
-        <v>0.543919384044429</v>
+        <v>0.3409019374670947</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.253915776880064</v>
+        <v>1.094085017649604</v>
       </c>
       <c r="C16">
-        <v>0.7774285958678604</v>
+        <v>0.2855770525452499</v>
       </c>
       <c r="D16">
-        <v>0.293898528834788</v>
+        <v>0.1026882746552076</v>
       </c>
       <c r="E16">
-        <v>0.01188772730041343</v>
+        <v>0.02899964087472817</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008136396024530473</v>
+        <v>0.00262579773666472</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.41600537079839</v>
+        <v>6.979918101727009</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.015351384637057</v>
+        <v>1.278585155890795</v>
       </c>
       <c r="L16">
-        <v>0.508135867766569</v>
+        <v>0.3334492104384026</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.191796650409685</v>
+        <v>1.090456872133984</v>
       </c>
       <c r="C17">
-        <v>0.7420370623143526</v>
+        <v>0.2764680366229015</v>
       </c>
       <c r="D17">
-        <v>0.2800320069245714</v>
+        <v>0.09938633952573639</v>
       </c>
       <c r="E17">
-        <v>0.01160900348511262</v>
+        <v>0.02907075042087826</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008187279531887549</v>
+        <v>0.002628195835397226</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.83595645411174</v>
+        <v>6.823362995561126</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.919911515300896</v>
+        <v>1.264151550639042</v>
       </c>
       <c r="L17">
-        <v>0.4866393172488301</v>
+        <v>0.3289251189863052</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.156856578048036</v>
+        <v>1.088502347690593</v>
       </c>
       <c r="C18">
-        <v>0.7218917842131702</v>
+        <v>0.2712359479388624</v>
       </c>
       <c r="D18">
-        <v>0.2721473699931778</v>
+        <v>0.09749221646387696</v>
       </c>
       <c r="E18">
-        <v>0.01145353263761706</v>
+        <v>0.02911350332034601</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008216532892020014</v>
+        <v>0.002629592898556632</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.50566181510291</v>
+        <v>6.73329763114603</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.865932888969922</v>
+        <v>1.255969980024844</v>
       </c>
       <c r="L18">
-        <v>0.47442790267921</v>
+        <v>0.3263405044877885</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145155358839617</v>
+        <v>1.08786324878767</v>
       </c>
       <c r="C19">
-        <v>0.7151052295374427</v>
+        <v>0.2694656703419867</v>
       </c>
       <c r="D19">
-        <v>0.2694925720070529</v>
+        <v>0.09685176183410249</v>
       </c>
       <c r="E19">
-        <v>0.01140169550717651</v>
+        <v>0.02912829691440422</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008226437326595168</v>
+        <v>0.002630068972152297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.39437023680549</v>
+        <v>6.702799453513876</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.847806047531463</v>
+        <v>1.253220437417241</v>
       </c>
       <c r="L19">
-        <v>0.4703182822326966</v>
+        <v>0.3254684000504824</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.198326046938718</v>
+        <v>1.090829390812218</v>
       </c>
       <c r="C20">
-        <v>0.7457822433117656</v>
+        <v>0.277436960662186</v>
       </c>
       <c r="D20">
-        <v>0.2814985015146902</v>
+        <v>0.0997373106089583</v>
       </c>
       <c r="E20">
-        <v>0.01163816572890752</v>
+        <v>0.0290629889581755</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008181864790526368</v>
+        <v>0.002627938718870209</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.89735081426724</v>
+        <v>6.840030442981686</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.929974551893793</v>
+        <v>1.26567557263246</v>
       </c>
       <c r="L20">
-        <v>0.4889115313097392</v>
+        <v>0.3294049007448194</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.38693487066854</v>
+        <v>1.102379618968058</v>
       </c>
       <c r="C21">
-        <v>0.8515291134024494</v>
+        <v>0.304306252595353</v>
       </c>
       <c r="D21">
-        <v>0.3229903068459237</v>
+        <v>0.109493342381441</v>
       </c>
       <c r="E21">
-        <v>0.01249287719032388</v>
+        <v>0.0288656963576468</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000803178123759428</v>
+        <v>0.002620992915814746</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.62969294786973</v>
+        <v>7.300905133662809</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.217624558097071</v>
+        <v>1.308964249880262</v>
       </c>
       <c r="L21">
-        <v>0.5533115178631647</v>
+        <v>0.3428409690430243</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.518941663316212</v>
+        <v>1.111118075006942</v>
       </c>
       <c r="C22">
-        <v>0.9230168516371577</v>
+        <v>0.3219341640720472</v>
       </c>
       <c r="D22">
-        <v>0.3511294516368935</v>
+        <v>0.1159160638129606</v>
       </c>
       <c r="E22">
-        <v>0.0131020670514701</v>
+        <v>0.02875324872859508</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007933045468159219</v>
+        <v>0.002616610195524689</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.7997572160935</v>
+        <v>7.602018594445383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.41580513605723</v>
+        <v>1.338339947734312</v>
       </c>
       <c r="L22">
-        <v>0.5970917567936169</v>
+        <v>0.3517800931138737</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.447594397213351</v>
+        <v>1.106344762222506</v>
       </c>
       <c r="C23">
-        <v>0.8846182440071857</v>
+        <v>0.3125194948581793</v>
       </c>
       <c r="D23">
-        <v>0.3360061473141229</v>
+        <v>0.1124837995092349</v>
       </c>
       <c r="E23">
-        <v>0.01277190064834066</v>
+        <v>0.0288117549607172</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007985830336999907</v>
+        <v>0.00261893505090275</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.17136429749496</v>
+        <v>7.441313702084358</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.30899045578127</v>
+        <v>1.32256174717034</v>
       </c>
       <c r="L23">
-        <v>0.5735528572769084</v>
+        <v>0.3469945782198494</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.19537171657214</v>
+        <v>1.090660566136677</v>
       </c>
       <c r="C24">
-        <v>0.7440884235977876</v>
+        <v>0.2769988951714026</v>
       </c>
       <c r="D24">
-        <v>0.2808352292261702</v>
+        <v>0.09957862350509572</v>
       </c>
       <c r="E24">
-        <v>0.01162496669451585</v>
+        <v>0.02906649208748213</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008184312787521242</v>
+        <v>0.002628054903837946</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.86958459384508</v>
+        <v>6.832495276925272</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.925422298633606</v>
+        <v>1.264986199558393</v>
       </c>
       <c r="L24">
-        <v>0.4878838081283305</v>
+        <v>0.3291879405180111</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9528558623166248</v>
+        <v>1.078793611657915</v>
       </c>
       <c r="C25">
-        <v>0.6003833272605164</v>
+        <v>0.2389564940488356</v>
       </c>
       <c r="D25">
-        <v>0.2247245955947221</v>
+        <v>0.08585095188412595</v>
       </c>
       <c r="E25">
-        <v>0.01057016004191524</v>
+        <v>0.02941209837292114</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008398092123226072</v>
+        <v>0.00263857113052295</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.51110668829253</v>
+        <v>6.175014519750476</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.545949054990757</v>
+        <v>1.207471667211138</v>
       </c>
       <c r="L25">
-        <v>0.4011941538036297</v>
+        <v>0.3106494496813212</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074334117552723</v>
+        <v>0.7926254341769834</v>
       </c>
       <c r="C2">
-        <v>0.2111556234066256</v>
+        <v>0.4992505927031345</v>
       </c>
       <c r="D2">
-        <v>0.07589854406890595</v>
+        <v>0.1854434840049919</v>
       </c>
       <c r="E2">
-        <v>0.02972752957218194</v>
+        <v>0.009918880783013506</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002646906146153501</v>
+        <v>0.0008557459998351172</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.689741979547478</v>
+        <v>9.846868740681515</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.168990046916491</v>
+        <v>1.287577032678968</v>
       </c>
       <c r="L2">
-        <v>0.2975616675253576</v>
+        <v>0.3408889612864812</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.073948960523239</v>
+        <v>0.6926946751759431</v>
       </c>
       <c r="C3">
-        <v>0.1924337519348285</v>
+        <v>0.43279226733992</v>
       </c>
       <c r="D3">
-        <v>0.06924553444146397</v>
+        <v>0.1597352713865092</v>
       </c>
       <c r="E3">
-        <v>0.0299793619647204</v>
+        <v>0.0095431389434113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002652928135165718</v>
+        <v>0.0008667583083472509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.359892256295893</v>
+        <v>8.750252029163676</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.145283538329238</v>
+        <v>1.122270783393049</v>
       </c>
       <c r="L3">
-        <v>0.2890363637149989</v>
+        <v>0.3016620441155879</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.075003360951683</v>
+        <v>0.6348483178689719</v>
       </c>
       <c r="C4">
-        <v>0.1809936237831096</v>
+        <v>0.3927810614835323</v>
       </c>
       <c r="D4">
-        <v>0.06520433084868671</v>
+        <v>0.144302395290822</v>
       </c>
       <c r="E4">
-        <v>0.0301527770937895</v>
+        <v>0.009341322928539952</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002656811085476234</v>
+        <v>0.0008736491947869406</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.156806094405141</v>
+        <v>8.088502382849185</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.131886134249783</v>
+        <v>1.024691203073473</v>
       </c>
       <c r="L4">
-        <v>0.2839698418084851</v>
+        <v>0.2782329067785412</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.075756309818189</v>
+        <v>0.6120591968036138</v>
       </c>
       <c r="C5">
-        <v>0.1763451283723043</v>
+        <v>0.3766455573769463</v>
       </c>
       <c r="D5">
-        <v>0.06356832596226525</v>
+        <v>0.1380890070455081</v>
       </c>
       <c r="E5">
-        <v>0.03022817265433453</v>
+        <v>0.009265887381172178</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002658440228613066</v>
+        <v>0.0008764930622988903</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.073897132045857</v>
+        <v>7.821241054124243</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.126716361719019</v>
+        <v>0.9857929068877525</v>
       </c>
       <c r="L5">
-        <v>0.2819472387981676</v>
+        <v>0.2688301988653023</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.075900822848837</v>
+        <v>0.6083197193620151</v>
       </c>
       <c r="C6">
-        <v>0.1755740493134965</v>
+        <v>0.3739756701428973</v>
       </c>
       <c r="D6">
-        <v>0.06329731656492754</v>
+        <v>0.1370614947438469</v>
       </c>
       <c r="E6">
-        <v>0.03024097764560629</v>
+        <v>0.009253759914040316</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002658713579109074</v>
+        <v>0.0008769675344181078</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.060120841756742</v>
+        <v>7.776994119688197</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.125875382678601</v>
+        <v>0.9793829430512631</v>
       </c>
       <c r="L6">
-        <v>0.2816139205104093</v>
+        <v>0.2672770842508072</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.07501220829559</v>
+        <v>0.634537925774282</v>
       </c>
       <c r="C7">
-        <v>0.1809308786476436</v>
+        <v>0.3925628044920586</v>
       </c>
       <c r="D7">
-        <v>0.06518222355741443</v>
+        <v>0.1442183092073179</v>
       </c>
       <c r="E7">
-        <v>0.03015377475919045</v>
+        <v>0.009340278592644857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002656832866867009</v>
+        <v>0.000873687399314782</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.155688573922873</v>
+        <v>8.084888886317685</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.131815241580512</v>
+        <v>1.02416324830611</v>
       </c>
       <c r="L7">
-        <v>0.2839423943088946</v>
+        <v>0.2781055372303172</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.073932575024543</v>
+        <v>0.7573771416280692</v>
       </c>
       <c r="C8">
-        <v>0.2046886068584968</v>
+        <v>0.4761515384978452</v>
       </c>
       <c r="D8">
-        <v>0.0735953853725988</v>
+        <v>0.1764980162475212</v>
       </c>
       <c r="E8">
-        <v>0.02981046333363402</v>
+        <v>0.009783036990573812</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002648944153322797</v>
+        <v>0.0008595182845328734</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.576119509886297</v>
+        <v>9.46603182996418</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.160574654073514</v>
+        <v>1.229689941108973</v>
       </c>
       <c r="L8">
-        <v>0.2945871319302995</v>
+        <v>0.32721445334451</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.082122153093621</v>
+        <v>1.031282234184715</v>
       </c>
       <c r="C9">
-        <v>0.2517369893205057</v>
+        <v>0.6479392549810825</v>
       </c>
       <c r="D9">
-        <v>0.09045034988771761</v>
+        <v>0.2432567561537269</v>
       </c>
       <c r="E9">
-        <v>0.02928621406136234</v>
+        <v>0.01090412435401333</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002634937299056481</v>
+        <v>0.0008325908332532676</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.396636944722815</v>
+        <v>12.29226888125424</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226239681180289</v>
+        <v>1.67000907202015</v>
       </c>
       <c r="L9">
-        <v>0.3168060165587718</v>
+        <v>0.4297653554201304</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.094516979205508</v>
+        <v>1.261116221904928</v>
       </c>
       <c r="C10">
-        <v>0.2866174384332396</v>
+        <v>0.781497148727766</v>
       </c>
       <c r="D10">
-        <v>0.1030657395268406</v>
+        <v>0.2954937843490342</v>
       </c>
       <c r="E10">
-        <v>0.02899177779832307</v>
+        <v>0.01192021112936104</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002625526496638023</v>
+        <v>0.0008130586401770425</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.997779804645063</v>
+        <v>14.48267019927565</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.280248470232834</v>
+        <v>2.026372107029431</v>
       </c>
       <c r="L10">
-        <v>0.3339678213670823</v>
+        <v>0.5106105074456337</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.101562023745402</v>
+        <v>1.37423327456645</v>
       </c>
       <c r="C11">
-        <v>0.3025612921090044</v>
+        <v>0.8445468710321222</v>
       </c>
       <c r="D11">
-        <v>0.1088584734513063</v>
+        <v>0.320245748552523</v>
       </c>
       <c r="E11">
-        <v>0.02887751924505189</v>
+        <v>0.01243467179651603</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00262143383854454</v>
+        <v>0.0008041535172199429</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.271047796928883</v>
+        <v>15.51537163784019</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.306096229573598</v>
+        <v>2.198426424684612</v>
       </c>
       <c r="L11">
-        <v>0.3419611579002719</v>
+        <v>0.5490455616281054</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.104433798696107</v>
+        <v>1.418542148631246</v>
       </c>
       <c r="C12">
-        <v>0.3086103850343136</v>
+        <v>0.8688227445516929</v>
       </c>
       <c r="D12">
-        <v>0.1110600311998127</v>
+        <v>0.3297909759139799</v>
       </c>
       <c r="E12">
-        <v>0.02883708185312983</v>
+        <v>0.01263805626782855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002619910946453974</v>
+        <v>0.0008007710091559182</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.374511301917721</v>
+        <v>15.91281136905906</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.3160700378819</v>
+        <v>2.265296780283364</v>
       </c>
       <c r="L12">
-        <v>0.3450151244876167</v>
+        <v>0.5638853528243857</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.103806211331005</v>
+        <v>1.408929516900457</v>
       </c>
       <c r="C13">
-        <v>0.3073070851594082</v>
+        <v>0.8635754338389461</v>
       </c>
       <c r="D13">
-        <v>0.1105855280981132</v>
+        <v>0.3277270450373067</v>
       </c>
       <c r="E13">
-        <v>0.02884566491450258</v>
+        <v>0.01259385375223232</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002620237734724152</v>
+        <v>0.0008015000863751498</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.352229172527927</v>
+        <v>15.82691115881801</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.313913704174524</v>
+        <v>2.250813510481976</v>
       </c>
       <c r="L13">
-        <v>0.3443561901428751</v>
+        <v>0.5606758122223567</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.101794188617873</v>
+        <v>1.37784749599453</v>
       </c>
       <c r="C14">
-        <v>0.3030587212584237</v>
+        <v>0.8465355887133796</v>
       </c>
       <c r="D14">
-        <v>0.1090394358211881</v>
+        <v>0.3210273977105658</v>
       </c>
       <c r="E14">
-        <v>0.02887413572358533</v>
+        <v>0.01245122587608627</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002621308011241811</v>
+        <v>0.0008038754908836497</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.279560082526416</v>
+        <v>15.54793400752544</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.306913045442997</v>
+        <v>2.203891632297598</v>
       </c>
       <c r="L14">
-        <v>0.3422118656161075</v>
+        <v>0.550260424023449</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.100588380845494</v>
+        <v>1.35900880032446</v>
       </c>
       <c r="C15">
-        <v>0.3004579883287022</v>
+        <v>0.8361526364073768</v>
       </c>
       <c r="D15">
-        <v>0.1080934548689783</v>
+        <v>0.3169470782673187</v>
       </c>
       <c r="E15">
-        <v>0.02889194343793555</v>
+        <v>0.01236501279646873</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002621967085311222</v>
+        <v>0.0008053289040544751</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.235046258932698</v>
+        <v>15.37792112668285</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.302649197289185</v>
+        <v>2.1753837105326</v>
       </c>
       <c r="L15">
-        <v>0.3409019374670947</v>
+        <v>0.5439193840441874</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.094085017649604</v>
+        <v>1.253915776879239</v>
       </c>
       <c r="C16">
-        <v>0.2855770525452499</v>
+        <v>0.7774285958655298</v>
       </c>
       <c r="D16">
-        <v>0.1026882746552076</v>
+        <v>0.2938985288346601</v>
       </c>
       <c r="E16">
-        <v>0.02899964087472817</v>
+        <v>0.01188772730034771</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00262579773666472</v>
+        <v>0.0008136396026560338</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.979918101727009</v>
+        <v>14.41600537079808</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.278585155890795</v>
+        <v>2.015351384637057</v>
       </c>
       <c r="L16">
-        <v>0.3334492104384026</v>
+        <v>0.5081358677667538</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.090456872133984</v>
+        <v>1.191796650409486</v>
       </c>
       <c r="C17">
-        <v>0.2764680366229015</v>
+        <v>0.7420370623149779</v>
       </c>
       <c r="D17">
-        <v>0.09938633952573639</v>
+        <v>0.2800320069245146</v>
       </c>
       <c r="E17">
-        <v>0.02907075042087826</v>
+        <v>0.01160900348509131</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002628195835397226</v>
+        <v>0.0008187279531243426</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.823362995561126</v>
+        <v>13.83595645411194</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.264151550639042</v>
+        <v>1.919911515300726</v>
       </c>
       <c r="L17">
-        <v>0.3289251189863052</v>
+        <v>0.4866393172487165</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.088502347690593</v>
+        <v>1.156856578048234</v>
       </c>
       <c r="C18">
-        <v>0.2712359479388624</v>
+        <v>0.7218917842136534</v>
       </c>
       <c r="D18">
-        <v>0.09749221646387696</v>
+        <v>0.272147369992652</v>
       </c>
       <c r="E18">
-        <v>0.02911350332034601</v>
+        <v>0.01145353263758331</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002629592898556632</v>
+        <v>0.0008216532891865052</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.73329763114603</v>
+        <v>13.50566181510305</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.255969980024844</v>
+        <v>1.865932888969866</v>
       </c>
       <c r="L18">
-        <v>0.3263405044877885</v>
+        <v>0.4744279026794516</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.08786324878767</v>
+        <v>1.145155358839162</v>
       </c>
       <c r="C19">
-        <v>0.2694656703419867</v>
+        <v>0.7151052295380111</v>
       </c>
       <c r="D19">
-        <v>0.09685176183410249</v>
+        <v>0.2694925720081329</v>
       </c>
       <c r="E19">
-        <v>0.02912829691440422</v>
+        <v>0.01140169550718362</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002630068972152297</v>
+        <v>0.0008226437325861502</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.702799453513876</v>
+        <v>13.39437023680568</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.253220437417241</v>
+        <v>1.847806047531463</v>
       </c>
       <c r="L19">
-        <v>0.3254684000504824</v>
+        <v>0.4703182822328813</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.090829390812218</v>
+        <v>1.198326046938405</v>
       </c>
       <c r="C20">
-        <v>0.277436960662186</v>
+        <v>0.7457822433121635</v>
       </c>
       <c r="D20">
-        <v>0.0997373106089583</v>
+        <v>0.2814985015146334</v>
       </c>
       <c r="E20">
-        <v>0.0290629889581755</v>
+        <v>0.01163816572885423</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002627938718870209</v>
+        <v>0.0008181864787673021</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.840030442981686</v>
+        <v>13.89735081426727</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.26567557263246</v>
+        <v>1.929974551893821</v>
       </c>
       <c r="L20">
-        <v>0.3294049007448194</v>
+        <v>0.4889115313096113</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.102379618968058</v>
+        <v>1.386934870668881</v>
       </c>
       <c r="C21">
-        <v>0.304306252595353</v>
+        <v>0.8515291134016536</v>
       </c>
       <c r="D21">
-        <v>0.109493342381441</v>
+        <v>0.3229903068459805</v>
       </c>
       <c r="E21">
-        <v>0.0288656963576468</v>
+        <v>0.01249287719031322</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002620992915814746</v>
+        <v>0.0008031781237358291</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.300905133662809</v>
+        <v>15.62969294786961</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.308964249880262</v>
+        <v>2.217624558097697</v>
       </c>
       <c r="L21">
-        <v>0.3428409690430243</v>
+        <v>0.5533115178630084</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.111118075006942</v>
+        <v>1.518941663316383</v>
       </c>
       <c r="C22">
-        <v>0.3219341640720472</v>
+        <v>0.9230168516376409</v>
       </c>
       <c r="D22">
-        <v>0.1159160638129606</v>
+        <v>0.3511294516365808</v>
       </c>
       <c r="E22">
-        <v>0.02875324872859508</v>
+        <v>0.01310206705148254</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002616610195524689</v>
+        <v>0.0007933045470426851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.602018594445383</v>
+        <v>16.79975721609327</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.338339947734312</v>
+        <v>2.415805136057031</v>
       </c>
       <c r="L22">
-        <v>0.3517800931138737</v>
+        <v>0.5970917567939296</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.106344762222506</v>
+        <v>1.447594397213464</v>
       </c>
       <c r="C23">
-        <v>0.3125194948581793</v>
+        <v>0.8846182440077541</v>
       </c>
       <c r="D23">
-        <v>0.1124837995092349</v>
+        <v>0.3360061473136398</v>
       </c>
       <c r="E23">
-        <v>0.0288117549607172</v>
+        <v>0.01277190064828382</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00261893505090275</v>
+        <v>0.0007985830338081186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.441313702084358</v>
+        <v>16.17136429749576</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.32256174717034</v>
+        <v>2.308990455780929</v>
       </c>
       <c r="L23">
-        <v>0.3469945782198494</v>
+        <v>0.5735528572767095</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.090660566136677</v>
+        <v>1.195371716572225</v>
       </c>
       <c r="C24">
-        <v>0.2769988951714026</v>
+        <v>0.7440884235974465</v>
       </c>
       <c r="D24">
-        <v>0.09957862350509572</v>
+        <v>0.280835229225616</v>
       </c>
       <c r="E24">
-        <v>0.02906649208748213</v>
+        <v>0.01162496669444835</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002628054903837946</v>
+        <v>0.0008184312789004877</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.832495276925272</v>
+        <v>13.86958459384525</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.264986199558393</v>
+        <v>1.925422298633578</v>
       </c>
       <c r="L24">
-        <v>0.3291879405180111</v>
+        <v>0.4878838081287142</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.078793611657915</v>
+        <v>0.9528558623163121</v>
       </c>
       <c r="C25">
-        <v>0.2389564940488356</v>
+        <v>0.6003833272607437</v>
       </c>
       <c r="D25">
-        <v>0.08585095188412595</v>
+        <v>0.22472459559512</v>
       </c>
       <c r="E25">
-        <v>0.02941209837292114</v>
+        <v>0.01057016004182731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00263857113052295</v>
+        <v>0.0008398092122572288</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.175014519750476</v>
+        <v>11.51110668829301</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.207471667211138</v>
+        <v>1.5459490549907</v>
       </c>
       <c r="L25">
-        <v>0.3106494496813212</v>
+        <v>0.4011941538037007</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7926254341769834</v>
+        <v>0.7783012696541789</v>
       </c>
       <c r="C2">
-        <v>0.4992505927031345</v>
+        <v>0.1768440866314478</v>
       </c>
       <c r="D2">
-        <v>0.1854434840049919</v>
+        <v>0.1964455735765966</v>
       </c>
       <c r="E2">
-        <v>0.009918880783013506</v>
+        <v>0.3694042111164535</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008557459998351172</v>
+        <v>0.3769989287398303</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.986676752251952E-06</v>
       </c>
       <c r="I2">
-        <v>9.846868740681515</v>
+        <v>0.0005484042451833204</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3257468160524581</v>
       </c>
       <c r="K2">
-        <v>1.287577032678968</v>
+        <v>0.311556122604518</v>
       </c>
       <c r="L2">
-        <v>0.3408889612864812</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8954172831948597</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5800923810567653</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.428999658121711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6926946751759431</v>
+        <v>0.6806374182774846</v>
       </c>
       <c r="C3">
-        <v>0.43279226733992</v>
+        <v>0.1592627004534251</v>
       </c>
       <c r="D3">
-        <v>0.1597352713865092</v>
+        <v>0.1707108493699394</v>
       </c>
       <c r="E3">
-        <v>0.0095431389434113</v>
+        <v>0.3251965234081879</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008667583083472509</v>
+        <v>0.3626795699233654</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001032390589650323</v>
       </c>
       <c r="I3">
-        <v>8.750252029163676</v>
+        <v>0.0008920928433524544</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.323303890551955</v>
       </c>
       <c r="K3">
-        <v>1.122270783393049</v>
+        <v>0.3119305699552335</v>
       </c>
       <c r="L3">
-        <v>0.3016620441155879</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.787208392904617</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5050184869837722</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.393240529938097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6348483178689719</v>
+        <v>0.6204104736352747</v>
       </c>
       <c r="C4">
-        <v>0.3927810614835323</v>
+        <v>0.1485911093314485</v>
       </c>
       <c r="D4">
-        <v>0.144302395290822</v>
+        <v>0.1550120323286137</v>
       </c>
       <c r="E4">
-        <v>0.009341322928539952</v>
+        <v>0.2980213439558739</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008736491947869406</v>
+        <v>0.3542021052032709</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003352984234854528</v>
       </c>
       <c r="I4">
-        <v>8.088502382849185</v>
+        <v>0.00127585757164228</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3220301740903722</v>
       </c>
       <c r="K4">
-        <v>1.024691203073473</v>
+        <v>0.3123449297070024</v>
       </c>
       <c r="L4">
-        <v>0.2782329067785412</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7207403504802556</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4589575285948087</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.372417435181717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6120591968036138</v>
+        <v>0.5954891076688398</v>
       </c>
       <c r="C5">
-        <v>0.3766455573769463</v>
+        <v>0.1446374358595648</v>
       </c>
       <c r="D5">
-        <v>0.1380890070455081</v>
+        <v>0.1486366229990068</v>
       </c>
       <c r="E5">
-        <v>0.009265887381172178</v>
+        <v>0.2868839948864164</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008764930622988903</v>
+        <v>0.3503377855899146</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0004715799547261312</v>
       </c>
       <c r="I5">
-        <v>7.821241054124243</v>
+        <v>0.001544607648727325</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3213128541037023</v>
       </c>
       <c r="K5">
-        <v>0.9857929068877525</v>
+        <v>0.3121733058781757</v>
       </c>
       <c r="L5">
-        <v>0.2688301988653023</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6939589790637086</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4402670709431433</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.362646123012354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6083197193620151</v>
+        <v>0.5909663704896957</v>
       </c>
       <c r="C6">
-        <v>0.3739756701428973</v>
+        <v>0.1444334296372176</v>
       </c>
       <c r="D6">
-        <v>0.1370614947438469</v>
+        <v>0.1475783048994117</v>
       </c>
       <c r="E6">
-        <v>0.009253759914040316</v>
+        <v>0.2849700393112471</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008769675344181078</v>
+        <v>0.3491087508733202</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0004971843221495131</v>
       </c>
       <c r="I6">
-        <v>7.776994119688197</v>
+        <v>0.001685769273201743</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3208875437893965</v>
       </c>
       <c r="K6">
-        <v>0.9793829430512631</v>
+        <v>0.3116773720774511</v>
       </c>
       <c r="L6">
-        <v>0.2672770842508072</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6898997220957455</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4372562051892857</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.359137004239273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.634537925774282</v>
+        <v>0.6190322115641322</v>
       </c>
       <c r="C7">
-        <v>0.3925628044920586</v>
+        <v>0.149771662105195</v>
       </c>
       <c r="D7">
-        <v>0.1442183092073179</v>
+        <v>0.1549231697549232</v>
       </c>
       <c r="E7">
-        <v>0.009340278592644857</v>
+        <v>0.2976966697682286</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000873687399314782</v>
+        <v>0.352533906276399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0003381442278580504</v>
       </c>
       <c r="I7">
-        <v>8.084888886317685</v>
+        <v>0.001520670948751857</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3211765601357826</v>
       </c>
       <c r="K7">
-        <v>1.02416324830611</v>
+        <v>0.3110600439002553</v>
       </c>
       <c r="L7">
-        <v>0.2781055372303172</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7214444903958253</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4589587109501423</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.367092200597071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7573771416280692</v>
+        <v>0.7432865316800417</v>
       </c>
       <c r="C8">
-        <v>0.4761515384978452</v>
+        <v>0.1724048762905994</v>
       </c>
       <c r="D8">
-        <v>0.1764980162475212</v>
+        <v>0.187544888935065</v>
       </c>
       <c r="E8">
-        <v>0.009783036990573812</v>
+        <v>0.3539344747532667</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008595182845328734</v>
+        <v>0.369860594654007</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.068626817981368E-06</v>
       </c>
       <c r="I8">
-        <v>9.46603182996418</v>
+        <v>0.0009185212968914058</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3237477069574624</v>
       </c>
       <c r="K8">
-        <v>1.229689941108973</v>
+        <v>0.3099603933310853</v>
       </c>
       <c r="L8">
-        <v>0.32721445334451</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8595351393300632</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5545341066668854</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.409583079900358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031282234184715</v>
+        <v>0.9868770336409796</v>
       </c>
       <c r="C9">
-        <v>0.6479392549810825</v>
+        <v>0.2156727344540741</v>
       </c>
       <c r="D9">
-        <v>0.2432567561537269</v>
+        <v>0.2524768551430299</v>
       </c>
       <c r="E9">
-        <v>0.01090412435401333</v>
+        <v>0.4644321464592167</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008325908332532676</v>
+        <v>0.4094375278695708</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0008223962412465813</v>
       </c>
       <c r="I9">
-        <v>12.29226888125424</v>
+        <v>0.0008411088173847503</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3321737020441873</v>
       </c>
       <c r="K9">
-        <v>1.67000907202015</v>
+        <v>0.3116254791637409</v>
       </c>
       <c r="L9">
-        <v>0.4297653554201304</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.128452082652444</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7419990147074031</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.511803316023702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.261116221904928</v>
+        <v>1.170463582908724</v>
       </c>
       <c r="C10">
-        <v>0.781497148727766</v>
+        <v>0.2491692936660996</v>
       </c>
       <c r="D10">
-        <v>0.2954937843490342</v>
+        <v>0.3009385391470403</v>
       </c>
       <c r="E10">
-        <v>0.01192021112936104</v>
+        <v>0.5117932852720131</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008130586401770425</v>
+        <v>0.4316186514775637</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002468565197562889</v>
       </c>
       <c r="I10">
-        <v>14.48267019927565</v>
+        <v>0.001914737113922982</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3351390176039075</v>
       </c>
       <c r="K10">
-        <v>2.026372107029431</v>
+        <v>0.308624175001313</v>
       </c>
       <c r="L10">
-        <v>0.5106105074456337</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.33266836715174</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8506748837029861</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.565494486229454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.37423327456645</v>
+        <v>1.30767486447337</v>
       </c>
       <c r="C11">
-        <v>0.8445468710321222</v>
+        <v>0.268603122286919</v>
       </c>
       <c r="D11">
-        <v>0.320245748552523</v>
+        <v>0.322906725872727</v>
       </c>
       <c r="E11">
-        <v>0.01243467179651603</v>
+        <v>0.2833513748843828</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008041535172199429</v>
+        <v>0.3723213461920807</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02049099398210075</v>
       </c>
       <c r="I11">
-        <v>15.51537163784019</v>
+        <v>0.002810257042934694</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3011285493228115</v>
       </c>
       <c r="K11">
-        <v>2.198426424684612</v>
+        <v>0.2674205311422746</v>
       </c>
       <c r="L11">
-        <v>0.5490455616281054</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.478668245930464</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6587419574295339</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.368765589635302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.418542148631246</v>
+        <v>1.389445520710098</v>
       </c>
       <c r="C12">
-        <v>0.8688227445516929</v>
+        <v>0.2761093748361105</v>
       </c>
       <c r="D12">
-        <v>0.3297909759139799</v>
+        <v>0.3311592006006379</v>
       </c>
       <c r="E12">
-        <v>0.01263805626782855</v>
+        <v>0.1407157320066901</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008007710091559182</v>
+        <v>0.3231343582153059</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05869709011724211</v>
       </c>
       <c r="I12">
-        <v>15.91281136905906</v>
+        <v>0.002905712960736828</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2743446232229374</v>
       </c>
       <c r="K12">
-        <v>2.265296780283364</v>
+        <v>0.2377722535249269</v>
       </c>
       <c r="L12">
-        <v>0.5638853528243857</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.559686085232045</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4962466862263852</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.208481633926809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.408929516900457</v>
+        <v>1.43078201801427</v>
       </c>
       <c r="C13">
-        <v>0.8635754338389461</v>
+        <v>0.2767645654718933</v>
       </c>
       <c r="D13">
-        <v>0.3277270450373067</v>
+        <v>0.3291852284942678</v>
       </c>
       <c r="E13">
-        <v>0.01259385375223232</v>
+        <v>0.05508389341472331</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008015000863751498</v>
+        <v>0.2762352888773876</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139916066231166</v>
       </c>
       <c r="I13">
-        <v>15.82691115881801</v>
+        <v>0.00270724186234883</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2501475950497181</v>
       </c>
       <c r="K13">
-        <v>2.250813510481976</v>
+        <v>0.2131324424823866</v>
       </c>
       <c r="L13">
-        <v>0.5606758122223567</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.59624402475913</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3482189440582673</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.058375990253808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.37784749599453</v>
+        <v>1.441001807797846</v>
       </c>
       <c r="C14">
-        <v>0.8465355887133796</v>
+        <v>0.274551228689333</v>
       </c>
       <c r="D14">
-        <v>0.3210273977105658</v>
+        <v>0.3231743762517567</v>
       </c>
       <c r="E14">
-        <v>0.01245122587608627</v>
+        <v>0.02886473084803809</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008038754908836497</v>
+        <v>0.2447017753223548</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1630526579243536</v>
       </c>
       <c r="I14">
-        <v>15.54793400752544</v>
+        <v>0.002526343427235567</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.234449272145234</v>
       </c>
       <c r="K14">
-        <v>2.203891632297598</v>
+        <v>0.1982892265515002</v>
       </c>
       <c r="L14">
-        <v>0.550260424023449</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.602019586526922</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2551396079641002</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9586039683992453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.35900880032446</v>
+        <v>1.433868568226387</v>
       </c>
       <c r="C15">
-        <v>0.8361526364073768</v>
+        <v>0.2730685933963173</v>
       </c>
       <c r="D15">
-        <v>0.3169470782673187</v>
+        <v>0.3195306294590097</v>
       </c>
       <c r="E15">
-        <v>0.01236501279646873</v>
+        <v>0.02687749650665863</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008053289040544751</v>
+        <v>0.2367210454990172</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1754608504861324</v>
       </c>
       <c r="I15">
-        <v>15.37792112668285</v>
+        <v>0.0025321819699613</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2307977896293067</v>
       </c>
       <c r="K15">
-        <v>2.1753837105326</v>
+        <v>0.1951267941418973</v>
       </c>
       <c r="L15">
-        <v>0.5439193840441874</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.593970316752973</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2329045373804348</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9340065598468499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.253915776879239</v>
+        <v>1.343842406156483</v>
       </c>
       <c r="C16">
-        <v>0.7774285958655298</v>
+        <v>0.2591121484936991</v>
       </c>
       <c r="D16">
-        <v>0.2938985288346601</v>
+        <v>0.2988282492255649</v>
       </c>
       <c r="E16">
-        <v>0.01188772730034771</v>
+        <v>0.02675340807947474</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008136396026560338</v>
+        <v>0.2360238183036643</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622940579150338</v>
       </c>
       <c r="I16">
-        <v>14.41600537079808</v>
+        <v>0.002160994991320386</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2338697335503852</v>
       </c>
       <c r="K16">
-        <v>2.015351384637057</v>
+        <v>0.2005314219565157</v>
       </c>
       <c r="L16">
-        <v>0.5081358677667538</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.497402349730947</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2213663544713818</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9387661036557233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.191796650409486</v>
+        <v>1.269572569464543</v>
       </c>
       <c r="C17">
-        <v>0.7420370623149779</v>
+        <v>0.2496711691546523</v>
       </c>
       <c r="D17">
-        <v>0.2800320069245146</v>
+        <v>0.2862225712622717</v>
       </c>
       <c r="E17">
-        <v>0.01160900348509131</v>
+        <v>0.03487033221388014</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008187279531243426</v>
+        <v>0.2519256071648996</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243160908891952</v>
       </c>
       <c r="I17">
-        <v>13.83595645411194</v>
+        <v>0.002018723819241508</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2444750096804711</v>
       </c>
       <c r="K17">
-        <v>1.919911515300726</v>
+        <v>0.2123618402309155</v>
       </c>
       <c r="L17">
-        <v>0.4866393172487165</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.420584672867932</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2590763467516055</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.994561691839067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.156856578048234</v>
+        <v>1.20239700861714</v>
       </c>
       <c r="C18">
-        <v>0.7218917842136534</v>
+        <v>0.2419518526944131</v>
       </c>
       <c r="D18">
-        <v>0.272147369992652</v>
+        <v>0.2790623222256414</v>
       </c>
       <c r="E18">
-        <v>0.01145353263758331</v>
+        <v>0.07996105933620612</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008216532891865052</v>
+        <v>0.2865480996159278</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.071504345413544</v>
       </c>
       <c r="I18">
-        <v>13.50566181510305</v>
+        <v>0.001738045438570701</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2639883759794301</v>
       </c>
       <c r="K18">
-        <v>1.865932888969866</v>
+        <v>0.2330848503232765</v>
       </c>
       <c r="L18">
-        <v>0.4744279026794516</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.351856624964142</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3549384641732658</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.108750061479327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145155358839162</v>
+        <v>1.144895361923915</v>
       </c>
       <c r="C19">
-        <v>0.7151052295380111</v>
+        <v>0.2389046012133207</v>
       </c>
       <c r="D19">
-        <v>0.2694925720081329</v>
+        <v>0.2767572701896057</v>
       </c>
       <c r="E19">
-        <v>0.01140169550718362</v>
+        <v>0.1951589893185783</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008226437325861502</v>
+        <v>0.3341424834704867</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02657040772562169</v>
       </c>
       <c r="I19">
-        <v>13.39437023680568</v>
+        <v>0.001880916942234023</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2892131478257269</v>
       </c>
       <c r="K19">
-        <v>1.847806047531463</v>
+        <v>0.2598898971450652</v>
       </c>
       <c r="L19">
-        <v>0.4703182822328813</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.298049316831339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5093199060252402</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.262447762160051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.198326046938405</v>
+        <v>1.119204536086727</v>
       </c>
       <c r="C20">
-        <v>0.7457822433121635</v>
+        <v>0.2443345838871949</v>
       </c>
       <c r="D20">
-        <v>0.2814985015146334</v>
+        <v>0.288136542792941</v>
       </c>
       <c r="E20">
-        <v>0.01163816572885423</v>
+        <v>0.4973791756209067</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008181864787673021</v>
+        <v>0.4203628019440231</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001937414512223956</v>
       </c>
       <c r="I20">
-        <v>13.89735081426727</v>
+        <v>0.002299479649529701</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3315431094796821</v>
       </c>
       <c r="K20">
-        <v>1.929974551893821</v>
+        <v>0.3052814411127365</v>
       </c>
       <c r="L20">
-        <v>0.4889115313096113</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.282674939705032</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8216741086853574</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.533985530411684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.386934870668881</v>
+        <v>1.250991602302548</v>
       </c>
       <c r="C21">
-        <v>0.8515291134016536</v>
+        <v>0.2692580277852414</v>
       </c>
       <c r="D21">
-        <v>0.3229903068459805</v>
+        <v>0.3256871965220967</v>
       </c>
       <c r="E21">
-        <v>0.01249287719031322</v>
+        <v>0.5863731290853949</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008031781237358291</v>
+        <v>0.4516692973834893</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003595577079937073</v>
       </c>
       <c r="I21">
-        <v>15.62969294786961</v>
+        <v>0.003361849256820371</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.341173835833132</v>
       </c>
       <c r="K21">
-        <v>2.217624558097697</v>
+        <v>0.311414309982613</v>
       </c>
       <c r="L21">
-        <v>0.5533115178630084</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.430187855862044</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9512740035340386</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.620863575936625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.518941663316383</v>
+        <v>1.341524563291301</v>
       </c>
       <c r="C22">
-        <v>0.9230168516376409</v>
+        <v>0.2841929836353927</v>
       </c>
       <c r="D22">
-        <v>0.3511294516365808</v>
+        <v>0.3504309216535688</v>
       </c>
       <c r="E22">
-        <v>0.01310206705148254</v>
+        <v>0.627609101078562</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007933045470426851</v>
+        <v>0.4705597376176485</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004911417866890311</v>
       </c>
       <c r="I22">
-        <v>16.79975721609327</v>
+        <v>0.00398510364871818</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3467216295983064</v>
       </c>
       <c r="K22">
-        <v>2.415805136057031</v>
+        <v>0.3148951424754465</v>
       </c>
       <c r="L22">
-        <v>0.5970917567939296</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.528251167307758</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.020700355885651</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.672744043906022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.447594397213464</v>
+        <v>1.294488459746958</v>
       </c>
       <c r="C23">
-        <v>0.8846182440077541</v>
+        <v>0.2746701805754412</v>
       </c>
       <c r="D23">
-        <v>0.3360061473136398</v>
+        <v>0.3372096837085223</v>
       </c>
       <c r="E23">
-        <v>0.01277190064828382</v>
+        <v>0.6057982477944961</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007985830338081186</v>
+        <v>0.462309400025859</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004189922355414488</v>
       </c>
       <c r="I23">
-        <v>16.17136429749576</v>
+        <v>0.003348533059399195</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.344698593618233</v>
       </c>
       <c r="K23">
-        <v>2.308990455780929</v>
+        <v>0.3144749477445998</v>
       </c>
       <c r="L23">
-        <v>0.5735528572767095</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.474581011165384</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9833186502098883</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.650901942981932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.195371716572225</v>
+        <v>1.11413958679455</v>
       </c>
       <c r="C24">
-        <v>0.7440884235974465</v>
+        <v>0.2414383467720569</v>
       </c>
       <c r="D24">
-        <v>0.280835229225616</v>
+        <v>0.2875600673384469</v>
       </c>
       <c r="E24">
-        <v>0.01162496669444835</v>
+        <v>0.5230846316332673</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008184312789004877</v>
+        <v>0.4291174994952769</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001934256365813569</v>
       </c>
       <c r="I24">
-        <v>13.86958459384525</v>
+        <v>0.001836155302345155</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3361179618507748</v>
       </c>
       <c r="K24">
-        <v>1.925422298633578</v>
+        <v>0.3111097058298142</v>
       </c>
       <c r="L24">
-        <v>0.4878838081287142</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.273799424476096</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8426758057254702</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.562119564997005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9528558623163121</v>
+        <v>0.9192464836542342</v>
       </c>
       <c r="C25">
-        <v>0.6003833272607437</v>
+        <v>0.206122091120335</v>
       </c>
       <c r="D25">
-        <v>0.22472459559512</v>
+        <v>0.2347807549537606</v>
       </c>
       <c r="E25">
-        <v>0.01057016004182731</v>
+        <v>0.4342098076177052</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008398092122572288</v>
+        <v>0.3955088085330658</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0004256017208956742</v>
       </c>
       <c r="I25">
-        <v>11.51110668829301</v>
+        <v>0.001100116921601391</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.328179238653945</v>
       </c>
       <c r="K25">
-        <v>1.5459490549907</v>
+        <v>0.3087223673981114</v>
       </c>
       <c r="L25">
-        <v>0.4011941538037007</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.057630480244654</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6916616620407225</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.473734810232088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7783012696541789</v>
+        <v>0.7677923870661516</v>
       </c>
       <c r="C2">
-        <v>0.1768440866314478</v>
+        <v>0.1880022153307834</v>
       </c>
       <c r="D2">
-        <v>0.1964455735765966</v>
+        <v>0.1965958352787283</v>
       </c>
       <c r="E2">
-        <v>0.3694042111164535</v>
+        <v>0.36804456452208</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3769989287398303</v>
+        <v>0.328297427358379</v>
       </c>
       <c r="H2">
-        <v>6.986676752251952E-06</v>
+        <v>1.755248906976092E-05</v>
       </c>
       <c r="I2">
-        <v>0.0005484042451833204</v>
+        <v>0.0005482227585922317</v>
       </c>
       <c r="J2">
-        <v>0.3257468160524581</v>
+        <v>0.3402563673190429</v>
       </c>
       <c r="K2">
-        <v>0.311556122604518</v>
+        <v>0.2806150740250573</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1488965774886672</v>
       </c>
       <c r="M2">
-        <v>0.8954172831948597</v>
+        <v>0.0703205094562076</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5800923810567653</v>
+        <v>0.9141765103501314</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.428999658121711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5850683900803375</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.325433778173746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6806374182774846</v>
+        <v>0.6743934348803009</v>
       </c>
       <c r="C3">
-        <v>0.1592627004534251</v>
+        <v>0.1652425382663552</v>
       </c>
       <c r="D3">
-        <v>0.1707108493699394</v>
+        <v>0.1708811274300501</v>
       </c>
       <c r="E3">
-        <v>0.3251965234081879</v>
+        <v>0.3247077215817313</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3626795699233654</v>
+        <v>0.3189894863137397</v>
       </c>
       <c r="H3">
-        <v>0.0001032390589650323</v>
+        <v>6.700926102531923E-05</v>
       </c>
       <c r="I3">
-        <v>0.0008920928433524544</v>
+        <v>0.0006903077586852824</v>
       </c>
       <c r="J3">
-        <v>0.323303890551955</v>
+        <v>0.3373292280999181</v>
       </c>
       <c r="K3">
-        <v>0.3119305699552335</v>
+        <v>0.2834567044956096</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1537205427603219</v>
       </c>
       <c r="M3">
-        <v>0.787208392904617</v>
+        <v>0.06895699227953855</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5050184869837722</v>
+        <v>0.8023087375547107</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.393240529938097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5091016652426745</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.302321525858801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6204104736352747</v>
+        <v>0.6167079670809414</v>
       </c>
       <c r="C4">
-        <v>0.1485911093314485</v>
+        <v>0.1515023145858123</v>
       </c>
       <c r="D4">
-        <v>0.1550120323286137</v>
+        <v>0.1551886669820703</v>
       </c>
       <c r="E4">
-        <v>0.2980213439558739</v>
+        <v>0.2980543884524351</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3542021052032709</v>
+        <v>0.3135850573551977</v>
       </c>
       <c r="H4">
-        <v>0.0003352984234854528</v>
+        <v>0.0002581147195985789</v>
       </c>
       <c r="I4">
-        <v>0.00127585757164228</v>
+        <v>0.0009214238674712938</v>
       </c>
       <c r="J4">
-        <v>0.3220301740903722</v>
+        <v>0.3355855245361141</v>
       </c>
       <c r="K4">
-        <v>0.3123449297070024</v>
+        <v>0.2853147410598567</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1567792305750793</v>
       </c>
       <c r="M4">
-        <v>0.7207403504802556</v>
+        <v>0.06861496781937149</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4589575285948087</v>
+        <v>0.7336370511577712</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.372417435181717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4624929986632011</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.288934593261743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5954891076688398</v>
+        <v>0.5928137955768307</v>
       </c>
       <c r="C5">
-        <v>0.1446374358595648</v>
+        <v>0.1463474121585051</v>
       </c>
       <c r="D5">
-        <v>0.1486366229990068</v>
+        <v>0.1488145833418884</v>
       </c>
       <c r="E5">
-        <v>0.2868839948864164</v>
+        <v>0.2871283040384824</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3503377855899146</v>
+        <v>0.3110099983447938</v>
       </c>
       <c r="H5">
-        <v>0.0004715799547261312</v>
+        <v>0.0003747345960984916</v>
       </c>
       <c r="I5">
-        <v>0.001544607648727325</v>
+        <v>0.001133094107696131</v>
       </c>
       <c r="J5">
-        <v>0.3213128541037023</v>
+        <v>0.3346418922736945</v>
       </c>
       <c r="K5">
-        <v>0.3121733058781757</v>
+        <v>0.2857517500344322</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1578698596578754</v>
       </c>
       <c r="M5">
-        <v>0.6939589790637086</v>
+        <v>0.06851711354499379</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4402670709431433</v>
+        <v>0.7059644806212049</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.362646123012354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4435780773316935</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.282216853131331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5909663704896957</v>
+        <v>0.5884729845991785</v>
       </c>
       <c r="C6">
-        <v>0.1444334296372176</v>
+        <v>0.1459726219444377</v>
       </c>
       <c r="D6">
-        <v>0.1475783048994117</v>
+        <v>0.1477564599974244</v>
       </c>
       <c r="E6">
-        <v>0.2849700393112471</v>
+        <v>0.2852511877399948</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3491087508733202</v>
+        <v>0.3100422662848601</v>
       </c>
       <c r="H6">
-        <v>0.0004971843221495131</v>
+        <v>0.0003968225536874481</v>
       </c>
       <c r="I6">
-        <v>0.001685769273201743</v>
+        <v>0.001280573743234648</v>
       </c>
       <c r="J6">
-        <v>0.3208875437893965</v>
+        <v>0.3341856103717191</v>
       </c>
       <c r="K6">
-        <v>0.3116773720774511</v>
+        <v>0.2854024109518178</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1578334677152107</v>
       </c>
       <c r="M6">
-        <v>0.6898997220957455</v>
+        <v>0.06840732081219336</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4372562051892857</v>
+        <v>0.7017521648892</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.359137004239273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.44052779773601</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.279337768189166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6190322115641322</v>
+        <v>0.615495967374585</v>
       </c>
       <c r="C7">
-        <v>0.149771662105195</v>
+        <v>0.152528947537391</v>
       </c>
       <c r="D7">
-        <v>0.1549231697549232</v>
+        <v>0.1550978664694469</v>
       </c>
       <c r="E7">
-        <v>0.2976966697682286</v>
+        <v>0.2977366291039587</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.352533906276399</v>
+        <v>0.314360704347834</v>
       </c>
       <c r="H7">
-        <v>0.0003381442278580504</v>
+        <v>0.0002612433097957112</v>
       </c>
       <c r="I7">
-        <v>0.001520670948751857</v>
+        <v>0.001209036295326982</v>
       </c>
       <c r="J7">
-        <v>0.3211765601357826</v>
+        <v>0.3309269499873295</v>
       </c>
       <c r="K7">
-        <v>0.3110600439002553</v>
+        <v>0.2837247086653036</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1559908377287016</v>
       </c>
       <c r="M7">
-        <v>0.7214444903958253</v>
+        <v>0.06821034397336057</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4589587109501423</v>
+        <v>0.7341070750189402</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.367092200597071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4624424556594491</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.281187517852572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7432865316800417</v>
+        <v>0.7347108120857513</v>
       </c>
       <c r="C8">
-        <v>0.1724048762905994</v>
+        <v>0.1811480739832234</v>
       </c>
       <c r="D8">
-        <v>0.187544888935065</v>
+        <v>0.1876956937401673</v>
       </c>
       <c r="E8">
-        <v>0.3539344747532667</v>
+        <v>0.3528849830141638</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.369860594654007</v>
+        <v>0.3307560947603676</v>
       </c>
       <c r="H8">
-        <v>3.068626817981368E-06</v>
+        <v>1.603000554517564E-08</v>
       </c>
       <c r="I8">
-        <v>0.0009185212968914058</v>
+        <v>0.0009099446734550654</v>
       </c>
       <c r="J8">
-        <v>0.3237477069574624</v>
+        <v>0.3257460403900581</v>
       </c>
       <c r="K8">
-        <v>0.3099603933310853</v>
+        <v>0.2786348084237495</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1491950682166561</v>
       </c>
       <c r="M8">
-        <v>0.8595351393300632</v>
+        <v>0.06887313114333615</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5545341066668854</v>
+        <v>0.876316201913852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.409583079900358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5590493761962136</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.301688940345215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9868770336409796</v>
+        <v>0.9672714171148584</v>
       </c>
       <c r="C9">
-        <v>0.2156727344540741</v>
+        <v>0.2376687896896783</v>
       </c>
       <c r="D9">
-        <v>0.2524768551430299</v>
+        <v>0.2525312498417236</v>
       </c>
       <c r="E9">
-        <v>0.4644321464592167</v>
+        <v>0.4611246429991169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4094375278695708</v>
+        <v>0.3598241050797455</v>
       </c>
       <c r="H9">
-        <v>0.0008223962412465813</v>
+        <v>0.0008561118233803011</v>
       </c>
       <c r="I9">
-        <v>0.0008411088173847503</v>
+        <v>0.001103166371434483</v>
       </c>
       <c r="J9">
-        <v>0.3321737020441873</v>
+        <v>0.3309764253346188</v>
       </c>
       <c r="K9">
-        <v>0.3116254791637409</v>
+        <v>0.2732370176987686</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1383581163460441</v>
       </c>
       <c r="M9">
-        <v>1.128452082652444</v>
+        <v>0.07515521447706242</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7419990147074031</v>
+        <v>1.154386871823306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.511803316023702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7486870374623322</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.367583739437734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.170463582908724</v>
+        <v>1.143433637158466</v>
       </c>
       <c r="C10">
-        <v>0.2491692936660996</v>
+        <v>0.2796544450783358</v>
       </c>
       <c r="D10">
-        <v>0.3009385391470403</v>
+        <v>0.3008581259682188</v>
       </c>
       <c r="E10">
-        <v>0.5117932852720131</v>
+        <v>0.5069885943710091</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4316186514775637</v>
+        <v>0.3893121019921182</v>
       </c>
       <c r="H10">
-        <v>0.002468565197562889</v>
+        <v>0.002445856793611423</v>
       </c>
       <c r="I10">
-        <v>0.001914737113922982</v>
+        <v>0.002210432215685287</v>
       </c>
       <c r="J10">
-        <v>0.3351390176039075</v>
+        <v>0.3112475109466644</v>
       </c>
       <c r="K10">
-        <v>0.308624175001313</v>
+        <v>0.2634777464960507</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1286144943297796</v>
       </c>
       <c r="M10">
-        <v>1.33266836715174</v>
+        <v>0.07959964521251806</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8506748837029861</v>
+        <v>1.363833211511491</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.565494486229454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8584033939250446</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.381257676501775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.30767486447337</v>
+        <v>1.282099338583834</v>
       </c>
       <c r="C11">
-        <v>0.268603122286919</v>
+        <v>0.2958370075225787</v>
       </c>
       <c r="D11">
-        <v>0.322906725872727</v>
+        <v>0.3227454354418171</v>
       </c>
       <c r="E11">
-        <v>0.2833513748843828</v>
+        <v>0.2797914761612716</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3723213461920807</v>
+        <v>0.3643078756478673</v>
       </c>
       <c r="H11">
-        <v>0.02049099398210075</v>
+        <v>0.02043948007395358</v>
       </c>
       <c r="I11">
-        <v>0.002810257042934694</v>
+        <v>0.003160214655938631</v>
       </c>
       <c r="J11">
-        <v>0.3011285493228115</v>
+        <v>0.2494527573219969</v>
       </c>
       <c r="K11">
-        <v>0.2674205311422746</v>
+        <v>0.2254429617910567</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1131442503908637</v>
       </c>
       <c r="M11">
-        <v>1.478668245930464</v>
+        <v>0.06773497307620957</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6587419574295339</v>
+        <v>1.506407918472831</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.368765589635302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6645318329452721</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.17839864967516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389445520710098</v>
+        <v>1.366457382297426</v>
       </c>
       <c r="C12">
-        <v>0.2761093748361105</v>
+        <v>0.2991839388556343</v>
       </c>
       <c r="D12">
-        <v>0.3311592006006379</v>
+        <v>0.3309716472005562</v>
       </c>
       <c r="E12">
-        <v>0.1407157320066901</v>
+        <v>0.1382766224554999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3231343582153059</v>
+        <v>0.3312454930102575</v>
       </c>
       <c r="H12">
-        <v>0.05869709011724211</v>
+        <v>0.05864529052345091</v>
       </c>
       <c r="I12">
-        <v>0.002905712960736828</v>
+        <v>0.003236693628068998</v>
       </c>
       <c r="J12">
-        <v>0.2743446232229374</v>
+        <v>0.2201305264259794</v>
       </c>
       <c r="K12">
-        <v>0.2377722535249269</v>
+        <v>0.2010560017838579</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1044634376720808</v>
       </c>
       <c r="M12">
-        <v>1.559686085232045</v>
+        <v>0.05858769996830482</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4962466862263852</v>
+        <v>1.58385325083438</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.208481633926809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5005713043305207</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.031411349352382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.43078201801427</v>
+        <v>1.411052978435123</v>
       </c>
       <c r="C13">
-        <v>0.2767645654718933</v>
+        <v>0.2955833974292972</v>
       </c>
       <c r="D13">
-        <v>0.3291852284942678</v>
+        <v>0.3290240494816032</v>
       </c>
       <c r="E13">
-        <v>0.05508389341472331</v>
+        <v>0.05370326847255313</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2762352888773876</v>
+        <v>0.2836136605553534</v>
       </c>
       <c r="H13">
-        <v>0.1139916066231166</v>
+        <v>0.1139565784679206</v>
       </c>
       <c r="I13">
-        <v>0.00270724186234883</v>
+        <v>0.00305006134874386</v>
       </c>
       <c r="J13">
-        <v>0.2501475950497181</v>
+        <v>0.2099345186751123</v>
       </c>
       <c r="K13">
-        <v>0.2131324424823866</v>
+        <v>0.183853037873881</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09915240555780969</v>
       </c>
       <c r="M13">
-        <v>1.59624402475913</v>
+        <v>0.05076190513982759</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3482189440582673</v>
+        <v>1.617147832950565</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.058375990253808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.351353508613812</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9130764267820695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441001807797846</v>
+        <v>1.423867037038775</v>
       </c>
       <c r="C14">
-        <v>0.274551228689333</v>
+        <v>0.2903547872772947</v>
       </c>
       <c r="D14">
-        <v>0.3231743762517567</v>
+        <v>0.3230537388565295</v>
       </c>
       <c r="E14">
-        <v>0.02886473084803809</v>
+        <v>0.02816117950257047</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2447017753223548</v>
+        <v>0.2456537460113424</v>
       </c>
       <c r="H14">
-        <v>0.1630526579243536</v>
+        <v>0.1630323782876246</v>
       </c>
       <c r="I14">
-        <v>0.002526343427235567</v>
+        <v>0.002902503762735265</v>
       </c>
       <c r="J14">
-        <v>0.234449272145234</v>
+        <v>0.208909951218466</v>
       </c>
       <c r="K14">
-        <v>0.1982892265515002</v>
+        <v>0.1746939462406054</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09663348540372407</v>
       </c>
       <c r="M14">
-        <v>1.602019586526922</v>
+        <v>0.04594072915296898</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2551396079641002</v>
+        <v>1.620753700119195</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9586039683992453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2575435520007296</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8414328457382254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.433868568226387</v>
+        <v>1.417505839510795</v>
       </c>
       <c r="C15">
-        <v>0.2730685933963173</v>
+        <v>0.28812813385683</v>
       </c>
       <c r="D15">
-        <v>0.3195306294590097</v>
+        <v>0.319430207142787</v>
       </c>
       <c r="E15">
-        <v>0.02687749650665863</v>
+        <v>0.02635445175503864</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2367210454990172</v>
+        <v>0.233880899430865</v>
       </c>
       <c r="H15">
-        <v>0.1754608504861324</v>
+        <v>0.1754463127123671</v>
       </c>
       <c r="I15">
-        <v>0.0025321819699613</v>
+        <v>0.00294312773114136</v>
       </c>
       <c r="J15">
-        <v>0.2307977896293067</v>
+        <v>0.2110867258376281</v>
       </c>
       <c r="K15">
-        <v>0.1951267941418973</v>
+        <v>0.1732405152951859</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0963678096869236</v>
       </c>
       <c r="M15">
-        <v>1.593970316752973</v>
+        <v>0.04485719513300346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2329045373804348</v>
+        <v>1.612244289542019</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9340065598468499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.235142482799553</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8265461463040822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.343842406156483</v>
+        <v>1.328764490975288</v>
       </c>
       <c r="C16">
-        <v>0.2591121484936991</v>
+        <v>0.2736541481469743</v>
       </c>
       <c r="D16">
-        <v>0.2988282492255649</v>
+        <v>0.2988185443493734</v>
       </c>
       <c r="E16">
-        <v>0.02675340807947474</v>
+        <v>0.02651273025914488</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2360238183036643</v>
+        <v>0.2148366647927702</v>
       </c>
       <c r="H16">
-        <v>0.1622940579150338</v>
+        <v>0.1622981787584052</v>
       </c>
       <c r="I16">
-        <v>0.002160994991320386</v>
+        <v>0.00262469770805307</v>
       </c>
       <c r="J16">
-        <v>0.2338697335503852</v>
+        <v>0.2360290375516882</v>
       </c>
       <c r="K16">
-        <v>0.2005314219565157</v>
+        <v>0.1815535379216051</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1001818402975401</v>
       </c>
       <c r="M16">
-        <v>1.497402349730947</v>
+        <v>0.04600967061390548</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2213663544713818</v>
+        <v>1.516207778445704</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9387661036557233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2236278738291126</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.856487245929145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.269572569464543</v>
+        <v>1.254337393833936</v>
       </c>
       <c r="C17">
-        <v>0.2496711691546523</v>
+        <v>0.2650441244078223</v>
       </c>
       <c r="D17">
-        <v>0.2862225712622717</v>
+        <v>0.2862534913597869</v>
       </c>
       <c r="E17">
-        <v>0.03487033221388014</v>
+        <v>0.03450862635735596</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2519256071648996</v>
+        <v>0.2215563702591155</v>
       </c>
       <c r="H17">
-        <v>0.1243160908891952</v>
+        <v>0.1243248016661482</v>
       </c>
       <c r="I17">
-        <v>0.002018723819241508</v>
+        <v>0.002498498210404598</v>
       </c>
       <c r="J17">
-        <v>0.2444750096804711</v>
+        <v>0.2559669814836738</v>
       </c>
       <c r="K17">
-        <v>0.2123618402309155</v>
+        <v>0.1927734269186328</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.104810696060941</v>
       </c>
       <c r="M17">
-        <v>1.420584672867932</v>
+        <v>0.04917010493745266</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2590763467516055</v>
+        <v>1.440565846224644</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.994561691839067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2617304611281348</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9161099058789546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.20239700861714</v>
+        <v>1.185495575809171</v>
       </c>
       <c r="C18">
-        <v>0.2419518526944131</v>
+        <v>0.2597925079908521</v>
       </c>
       <c r="D18">
-        <v>0.2790623222256414</v>
+        <v>0.2791060465491739</v>
       </c>
       <c r="E18">
-        <v>0.07996105933620612</v>
+        <v>0.07904063061615574</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2865480996159278</v>
+        <v>0.2485063695959653</v>
       </c>
       <c r="H18">
-        <v>0.071504345413544</v>
+        <v>0.07151645069102841</v>
       </c>
       <c r="I18">
-        <v>0.001738045438570701</v>
+        <v>0.002171877971098191</v>
       </c>
       <c r="J18">
-        <v>0.2639883759794301</v>
+        <v>0.2779130113738617</v>
       </c>
       <c r="K18">
-        <v>0.2330848503232765</v>
+        <v>0.2100130771457032</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1115478671189969</v>
       </c>
       <c r="M18">
-        <v>1.351856624964142</v>
+        <v>0.05510402707605344</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3549384641732658</v>
+        <v>1.374115112431838</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.108750061479327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.358495313763143</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.019753325945231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.144895361923915</v>
+        <v>1.125307211740363</v>
       </c>
       <c r="C19">
-        <v>0.2389046012133207</v>
+        <v>0.2606244034505494</v>
       </c>
       <c r="D19">
-        <v>0.2767572701896057</v>
+        <v>0.2767936296207978</v>
       </c>
       <c r="E19">
-        <v>0.1951589893185783</v>
+        <v>0.1932101241775399</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3341424834704867</v>
+        <v>0.2883682503065472</v>
       </c>
       <c r="H19">
-        <v>0.02657040772562169</v>
+        <v>0.02658768275555445</v>
       </c>
       <c r="I19">
-        <v>0.001880916942234023</v>
+        <v>0.002339857513433685</v>
       </c>
       <c r="J19">
-        <v>0.2892131478257269</v>
+        <v>0.3012732041797221</v>
       </c>
       <c r="K19">
-        <v>0.2598898971450652</v>
+        <v>0.2311969569161789</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1195645855507141</v>
       </c>
       <c r="M19">
-        <v>1.298049316831339</v>
+        <v>0.06298381276748266</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5093199060252402</v>
+        <v>1.323317869840508</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.262447762160051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5142665818044705</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.152780318004176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.119204536086727</v>
+        <v>1.093864756973232</v>
       </c>
       <c r="C20">
-        <v>0.2443345838871949</v>
+        <v>0.2737378996213238</v>
       </c>
       <c r="D20">
-        <v>0.288136542792941</v>
+        <v>0.2881082959619903</v>
       </c>
       <c r="E20">
-        <v>0.4973791756209067</v>
+        <v>0.4929939854055547</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4203628019440231</v>
+        <v>0.3680948829311603</v>
       </c>
       <c r="H20">
-        <v>0.001937414512223956</v>
+        <v>0.001941120786864481</v>
       </c>
       <c r="I20">
-        <v>0.002299479649529701</v>
+        <v>0.002765885575890081</v>
       </c>
       <c r="J20">
-        <v>0.3315431094796821</v>
+        <v>0.3263343919764594</v>
       </c>
       <c r="K20">
-        <v>0.3052814411127365</v>
+        <v>0.264023984487455</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1303799055511998</v>
       </c>
       <c r="M20">
-        <v>1.282674939705032</v>
+        <v>0.07753858088917198</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8216741086853574</v>
+        <v>1.313173070616415</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.533985530411684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8292688317817891</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.371854919283663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.250991602302548</v>
+        <v>1.221566089092022</v>
       </c>
       <c r="C21">
-        <v>0.2692580277852414</v>
+        <v>0.3017574864810229</v>
       </c>
       <c r="D21">
-        <v>0.3256871965220967</v>
+        <v>0.3254675424216202</v>
       </c>
       <c r="E21">
-        <v>0.5863731290853949</v>
+        <v>0.5805126617802117</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4516692973834893</v>
+        <v>0.450628329085518</v>
       </c>
       <c r="H21">
-        <v>0.003595577079937073</v>
+        <v>0.003487446303992447</v>
       </c>
       <c r="I21">
-        <v>0.003361849256820371</v>
+        <v>0.003709905618721088</v>
       </c>
       <c r="J21">
-        <v>0.341173835833132</v>
+        <v>0.2599345437298552</v>
       </c>
       <c r="K21">
-        <v>0.311414309982613</v>
+        <v>0.2554359302014113</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1229068694059627</v>
       </c>
       <c r="M21">
-        <v>1.430187855862044</v>
+        <v>0.08088644518544896</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9512740035340386</v>
+        <v>1.46131260365209</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.620863575936625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9591370656967584</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.369566973288926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.341524563291301</v>
+        <v>1.309748121166223</v>
       </c>
       <c r="C22">
-        <v>0.2841929836353927</v>
+        <v>0.3179899028451416</v>
       </c>
       <c r="D22">
-        <v>0.3504309216535688</v>
+        <v>0.3500660122488028</v>
       </c>
       <c r="E22">
-        <v>0.627609101078562</v>
+        <v>0.6209130556941034</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4705597376176485</v>
+        <v>0.5111751123933601</v>
       </c>
       <c r="H22">
-        <v>0.004911417866890311</v>
+        <v>0.004702063602040063</v>
       </c>
       <c r="I22">
-        <v>0.00398510364871818</v>
+        <v>0.004130338510055509</v>
       </c>
       <c r="J22">
-        <v>0.3467216295983064</v>
+        <v>0.222190887525521</v>
       </c>
       <c r="K22">
-        <v>0.3148951424754465</v>
+        <v>0.2489300726845194</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1179548825615608</v>
       </c>
       <c r="M22">
-        <v>1.528251167307758</v>
+        <v>0.08290842913529417</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.020700355885651</v>
+        <v>1.55925439754543</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.672744043906022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.028509271991922</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.359883880008425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.294488459746958</v>
+        <v>1.263571864095979</v>
       </c>
       <c r="C23">
-        <v>0.2746701805754412</v>
+        <v>0.3082443251223737</v>
       </c>
       <c r="D23">
-        <v>0.3372096837085223</v>
+        <v>0.3369316742706872</v>
       </c>
       <c r="E23">
-        <v>0.6057982477944961</v>
+        <v>0.599523726143758</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.462309400025859</v>
+        <v>0.4732355537471022</v>
       </c>
       <c r="H23">
-        <v>0.004189922355414488</v>
+        <v>0.004041636230530998</v>
       </c>
       <c r="I23">
-        <v>0.003348533059399195</v>
+        <v>0.003550061962798168</v>
       </c>
       <c r="J23">
-        <v>0.344698593618233</v>
+        <v>0.2481768728481057</v>
       </c>
       <c r="K23">
-        <v>0.3144749477445998</v>
+        <v>0.2546103736415084</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1212947347059181</v>
       </c>
       <c r="M23">
-        <v>1.474581011165384</v>
+        <v>0.08276158343839057</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9833186502098883</v>
+        <v>1.506222966790972</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.650901942981932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9912921207581462</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.377236041523417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.11413958679455</v>
+        <v>1.088503507598006</v>
       </c>
       <c r="C24">
-        <v>0.2414383467720569</v>
+        <v>0.2709714045381872</v>
       </c>
       <c r="D24">
-        <v>0.2875600673384469</v>
+        <v>0.2875311168465657</v>
       </c>
       <c r="E24">
-        <v>0.5230846316332673</v>
+        <v>0.5185298946446153</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4291174994952769</v>
+        <v>0.3753535649334623</v>
       </c>
       <c r="H24">
-        <v>0.001934256365813569</v>
+        <v>0.001937731501791884</v>
       </c>
       <c r="I24">
-        <v>0.001836155302345155</v>
+        <v>0.002202923904686571</v>
       </c>
       <c r="J24">
-        <v>0.3361179618507748</v>
+        <v>0.3309298935737175</v>
       </c>
       <c r="K24">
-        <v>0.3111097058298142</v>
+        <v>0.2688254367123548</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1321965092886668</v>
       </c>
       <c r="M24">
-        <v>1.273799424476096</v>
+        <v>0.07932544460739166</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8426758057254702</v>
+        <v>1.304574949966337</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.562119564997005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8504648418875647</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.396851290230046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9192464836542342</v>
+        <v>0.9026025739411807</v>
       </c>
       <c r="C25">
-        <v>0.206122091120335</v>
+        <v>0.2249558412343191</v>
       </c>
       <c r="D25">
-        <v>0.2347807549537606</v>
+        <v>0.2348730732273339</v>
       </c>
       <c r="E25">
-        <v>0.4342098076177052</v>
+        <v>0.4315378478241669</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3955088085330658</v>
+        <v>0.345659126359493</v>
       </c>
       <c r="H25">
-        <v>0.0004256017208956742</v>
+        <v>0.0004630772436104991</v>
       </c>
       <c r="I25">
-        <v>0.001100116921601391</v>
+        <v>0.001402073534645609</v>
       </c>
       <c r="J25">
-        <v>0.328179238653945</v>
+        <v>0.3333561765034574</v>
       </c>
       <c r="K25">
-        <v>0.3087223673981114</v>
+        <v>0.2732251879833676</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1406557220910578</v>
       </c>
       <c r="M25">
-        <v>1.057630480244654</v>
+        <v>0.07254924616266578</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6916616620407225</v>
+        <v>1.081338598105248</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.473734810232088</v>
+        <v>0.6978196512679773</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.344431461622264</v>
       </c>
     </row>
   </sheetData>
